--- a/code/notebooks/sortie_jalon2.xlsx
+++ b/code/notebooks/sortie_jalon2.xlsx
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -10856,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -10870,7 +10870,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -10884,7 +10884,7 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
@@ -10898,7 +10898,7 @@
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -10912,7 +10912,7 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -10926,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -10940,7 +10940,7 @@
         <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -10954,7 +10954,7 @@
         <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -10968,7 +10968,7 @@
         <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -10982,7 +10982,7 @@
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -10996,7 +10996,7 @@
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -11010,7 +11010,7 @@
         <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -11024,7 +11024,7 @@
         <v>7</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -11038,7 +11038,7 @@
         <v>7</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -11122,7 +11122,7 @@
         <v>7</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -11136,7 +11136,7 @@
         <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -11150,7 +11150,7 @@
         <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -11164,7 +11164,7 @@
         <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -11178,7 +11178,7 @@
         <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -11192,7 +11192,7 @@
         <v>4</v>
       </c>
       <c r="D72" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -11206,7 +11206,7 @@
         <v>3</v>
       </c>
       <c r="D73" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -11220,7 +11220,7 @@
         <v>2</v>
       </c>
       <c r="D74" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -11234,7 +11234,7 @@
         <v>2</v>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -11248,7 +11248,7 @@
         <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -11262,7 +11262,7 @@
         <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -11276,7 +11276,7 @@
         <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -11290,7 +11290,7 @@
         <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -11304,7 +11304,7 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -11318,7 +11318,7 @@
         <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -11332,7 +11332,7 @@
         <v>2</v>
       </c>
       <c r="D82" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -11346,7 +11346,7 @@
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -11360,7 +11360,7 @@
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -11374,7 +11374,7 @@
         <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -11388,7 +11388,7 @@
         <v>2</v>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
@@ -11402,7 +11402,7 @@
         <v>2</v>
       </c>
       <c r="D87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -11416,7 +11416,7 @@
         <v>2</v>
       </c>
       <c r="D88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -11430,7 +11430,7 @@
         <v>2</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
@@ -11444,7 +11444,7 @@
         <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -11458,7 +11458,7 @@
         <v>4</v>
       </c>
       <c r="D91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
@@ -11472,7 +11472,7 @@
         <v>7</v>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93">
@@ -11486,7 +11486,7 @@
         <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -11500,7 +11500,7 @@
         <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
@@ -11514,7 +11514,7 @@
         <v>7</v>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -11528,7 +11528,7 @@
         <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -11542,7 +11542,7 @@
         <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
@@ -11556,7 +11556,7 @@
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99">
@@ -11570,7 +11570,7 @@
         <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -11584,7 +11584,7 @@
         <v>7</v>
       </c>
       <c r="D100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101">
@@ -11598,7 +11598,7 @@
         <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102">
@@ -11612,7 +11612,7 @@
         <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103">
@@ -11626,7 +11626,7 @@
         <v>9</v>
       </c>
       <c r="D103" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
@@ -11640,7 +11640,7 @@
         <v>9</v>
       </c>
       <c r="D104" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -11654,7 +11654,7 @@
         <v>9</v>
       </c>
       <c r="D105" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -11668,7 +11668,7 @@
         <v>8</v>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -11682,7 +11682,7 @@
         <v>7</v>
       </c>
       <c r="D107" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -11696,7 +11696,7 @@
         <v>7</v>
       </c>
       <c r="D108" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
@@ -11710,7 +11710,7 @@
         <v>7</v>
       </c>
       <c r="D109" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110">
@@ -11724,7 +11724,7 @@
         <v>9</v>
       </c>
       <c r="D110" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111">
@@ -11738,7 +11738,7 @@
         <v>9</v>
       </c>
       <c r="D111" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="112">
@@ -11752,7 +11752,7 @@
         <v>9</v>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113">
@@ -11766,7 +11766,7 @@
         <v>9</v>
       </c>
       <c r="D113" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114">
@@ -11780,7 +11780,7 @@
         <v>9</v>
       </c>
       <c r="D114" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="115">
@@ -11794,7 +11794,7 @@
         <v>11</v>
       </c>
       <c r="D115" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
@@ -11808,7 +11808,7 @@
         <v>10</v>
       </c>
       <c r="D116" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
@@ -11822,7 +11822,7 @@
         <v>10</v>
       </c>
       <c r="D117" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">
@@ -11836,7 +11836,7 @@
         <v>10</v>
       </c>
       <c r="D118" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119">
@@ -11850,7 +11850,7 @@
         <v>12</v>
       </c>
       <c r="D119" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120">
@@ -11864,7 +11864,7 @@
         <v>12</v>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -11878,7 +11878,7 @@
         <v>12</v>
       </c>
       <c r="D121" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -11892,7 +11892,7 @@
         <v>12</v>
       </c>
       <c r="D122" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -11906,7 +11906,7 @@
         <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -11920,7 +11920,7 @@
         <v>11</v>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -11934,7 +11934,7 @@
         <v>10</v>
       </c>
       <c r="D125" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -11948,7 +11948,7 @@
         <v>9</v>
       </c>
       <c r="D126" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -11962,7 +11962,7 @@
         <v>9</v>
       </c>
       <c r="D127" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -11976,7 +11976,7 @@
         <v>9</v>
       </c>
       <c r="D128" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -11990,7 +11990,7 @@
         <v>9</v>
       </c>
       <c r="D129" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -12004,7 +12004,7 @@
         <v>9</v>
       </c>
       <c r="D130" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -12018,7 +12018,7 @@
         <v>9</v>
       </c>
       <c r="D131" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -12032,7 +12032,7 @@
         <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -12046,7 +12046,7 @@
         <v>8</v>
       </c>
       <c r="D133" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -12060,7 +12060,7 @@
         <v>7</v>
       </c>
       <c r="D134" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -12074,7 +12074,7 @@
         <v>6</v>
       </c>
       <c r="D135" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -12088,7 +12088,7 @@
         <v>5</v>
       </c>
       <c r="D136" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
@@ -12102,7 +12102,7 @@
         <v>5</v>
       </c>
       <c r="D137" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138">
@@ -12116,7 +12116,7 @@
         <v>4</v>
       </c>
       <c r="D138" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139">
@@ -12130,7 +12130,7 @@
         <v>3</v>
       </c>
       <c r="D139" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140">
@@ -12144,7 +12144,7 @@
         <v>2</v>
       </c>
       <c r="D140" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141">
@@ -12158,7 +12158,7 @@
         <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
@@ -12172,7 +12172,7 @@
         <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
@@ -12186,7 +12186,7 @@
         <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144">
@@ -12200,7 +12200,7 @@
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145">
@@ -12214,7 +12214,7 @@
         <v>2</v>
       </c>
       <c r="D145" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
@@ -12228,7 +12228,7 @@
         <v>2</v>
       </c>
       <c r="D146" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
@@ -12242,7 +12242,7 @@
         <v>2</v>
       </c>
       <c r="D147" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148">
@@ -12256,7 +12256,7 @@
         <v>2</v>
       </c>
       <c r="D148" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
@@ -12270,7 +12270,7 @@
         <v>2</v>
       </c>
       <c r="D149" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="150">
@@ -12284,7 +12284,7 @@
         <v>2</v>
       </c>
       <c r="D150" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151">
@@ -12298,7 +12298,7 @@
         <v>2</v>
       </c>
       <c r="D151" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
@@ -12312,7 +12312,7 @@
         <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
@@ -12326,7 +12326,7 @@
         <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154">
@@ -12340,7 +12340,7 @@
         <v>3</v>
       </c>
       <c r="D154" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155">
@@ -12354,7 +12354,7 @@
         <v>3</v>
       </c>
       <c r="D155" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156">
@@ -12368,7 +12368,7 @@
         <v>3</v>
       </c>
       <c r="D156" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157">
@@ -12382,7 +12382,7 @@
         <v>3</v>
       </c>
       <c r="D157" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
@@ -12396,7 +12396,7 @@
         <v>3</v>
       </c>
       <c r="D158" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159">
@@ -12410,7 +12410,7 @@
         <v>3</v>
       </c>
       <c r="D159" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
@@ -12424,7 +12424,7 @@
         <v>3</v>
       </c>
       <c r="D160" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -12438,7 +12438,7 @@
         <v>5</v>
       </c>
       <c r="D161" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162">
@@ -12452,7 +12452,7 @@
         <v>5</v>
       </c>
       <c r="D162" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163">
@@ -12466,7 +12466,7 @@
         <v>5</v>
       </c>
       <c r="D163" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -12480,7 +12480,7 @@
         <v>5</v>
       </c>
       <c r="D164" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -12494,7 +12494,7 @@
         <v>5</v>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166">
@@ -12508,7 +12508,7 @@
         <v>4</v>
       </c>
       <c r="D166" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
@@ -12522,7 +12522,7 @@
         <v>4</v>
       </c>
       <c r="D167" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -12536,7 +12536,7 @@
         <v>4</v>
       </c>
       <c r="D168" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -12550,7 +12550,7 @@
         <v>4</v>
       </c>
       <c r="D169" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
@@ -12564,7 +12564,7 @@
         <v>4</v>
       </c>
       <c r="D170" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -12578,7 +12578,7 @@
         <v>4</v>
       </c>
       <c r="D171" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172">
@@ -12592,7 +12592,7 @@
         <v>4</v>
       </c>
       <c r="D172" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173">
@@ -12606,7 +12606,7 @@
         <v>7</v>
       </c>
       <c r="D173" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -12620,7 +12620,7 @@
         <v>7</v>
       </c>
       <c r="D174" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175">
@@ -12634,7 +12634,7 @@
         <v>6</v>
       </c>
       <c r="D175" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -12648,7 +12648,7 @@
         <v>6</v>
       </c>
       <c r="D176" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -12662,7 +12662,7 @@
         <v>6</v>
       </c>
       <c r="D177" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -12676,7 +12676,7 @@
         <v>6</v>
       </c>
       <c r="D178" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -12690,7 +12690,7 @@
         <v>6</v>
       </c>
       <c r="D179" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -12704,7 +12704,7 @@
         <v>6</v>
       </c>
       <c r="D180" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -12718,7 +12718,7 @@
         <v>6</v>
       </c>
       <c r="D181" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -12732,7 +12732,7 @@
         <v>5</v>
       </c>
       <c r="D182" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -12746,7 +12746,7 @@
         <v>5</v>
       </c>
       <c r="D183" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -12760,7 +12760,7 @@
         <v>5</v>
       </c>
       <c r="D184" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -12774,7 +12774,7 @@
         <v>5</v>
       </c>
       <c r="D185" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -12788,7 +12788,7 @@
         <v>5</v>
       </c>
       <c r="D186" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -12802,7 +12802,7 @@
         <v>4</v>
       </c>
       <c r="D187" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188">
@@ -12816,7 +12816,7 @@
         <v>4</v>
       </c>
       <c r="D188" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189">
@@ -12830,7 +12830,7 @@
         <v>4</v>
       </c>
       <c r="D189" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190">
@@ -12872,7 +12872,7 @@
         <v>10</v>
       </c>
       <c r="D192" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193">
@@ -12886,7 +12886,7 @@
         <v>11</v>
       </c>
       <c r="D193" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -12900,7 +12900,7 @@
         <v>11</v>
       </c>
       <c r="D194" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -12914,7 +12914,7 @@
         <v>11</v>
       </c>
       <c r="D195" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196">
@@ -12928,7 +12928,7 @@
         <v>11</v>
       </c>
       <c r="D196" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -12942,7 +12942,7 @@
         <v>11</v>
       </c>
       <c r="D197" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198">
@@ -12956,7 +12956,7 @@
         <v>11</v>
       </c>
       <c r="D198" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -12970,7 +12970,7 @@
         <v>11</v>
       </c>
       <c r="D199" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -12984,7 +12984,7 @@
         <v>11</v>
       </c>
       <c r="D200" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -12998,7 +12998,7 @@
         <v>11</v>
       </c>
       <c r="D201" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
@@ -13012,7 +13012,7 @@
         <v>11</v>
       </c>
       <c r="D202" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -13026,7 +13026,7 @@
         <v>11</v>
       </c>
       <c r="D203" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -13040,7 +13040,7 @@
         <v>12</v>
       </c>
       <c r="D204" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -13054,7 +13054,7 @@
         <v>12</v>
       </c>
       <c r="D205" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206">
@@ -13068,7 +13068,7 @@
         <v>12</v>
       </c>
       <c r="D206" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -13096,7 +13096,7 @@
         <v>10</v>
       </c>
       <c r="D208" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -13110,7 +13110,7 @@
         <v>9</v>
       </c>
       <c r="D209" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="210">
@@ -13124,7 +13124,7 @@
         <v>8</v>
       </c>
       <c r="D210" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211">
@@ -13138,7 +13138,7 @@
         <v>7</v>
       </c>
       <c r="D211" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
@@ -13152,7 +13152,7 @@
         <v>6</v>
       </c>
       <c r="D212" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213">
@@ -13166,7 +13166,7 @@
         <v>5</v>
       </c>
       <c r="D213" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="214">
@@ -13180,7 +13180,7 @@
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="215">
@@ -13194,7 +13194,7 @@
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216">
@@ -13208,7 +13208,7 @@
         <v>6</v>
       </c>
       <c r="D216" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -13222,7 +13222,7 @@
         <v>6</v>
       </c>
       <c r="D217" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -13236,7 +13236,7 @@
         <v>5</v>
       </c>
       <c r="D218" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -13250,7 +13250,7 @@
         <v>5</v>
       </c>
       <c r="D219" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
@@ -13264,7 +13264,7 @@
         <v>5</v>
       </c>
       <c r="D220" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -13278,7 +13278,7 @@
         <v>8</v>
       </c>
       <c r="D221" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -13292,7 +13292,7 @@
         <v>10</v>
       </c>
       <c r="D222" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -13306,7 +13306,7 @@
         <v>10</v>
       </c>
       <c r="D223" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -13320,7 +13320,7 @@
         <v>10</v>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -13334,7 +13334,7 @@
         <v>10</v>
       </c>
       <c r="D225" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -13348,7 +13348,7 @@
         <v>10</v>
       </c>
       <c r="D226" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
@@ -13362,7 +13362,7 @@
         <v>10</v>
       </c>
       <c r="D227" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
@@ -13376,7 +13376,7 @@
         <v>10</v>
       </c>
       <c r="D228" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -13390,7 +13390,7 @@
         <v>9</v>
       </c>
       <c r="D229" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -13404,7 +13404,7 @@
         <v>8</v>
       </c>
       <c r="D230" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231">
@@ -13418,7 +13418,7 @@
         <v>8</v>
       </c>
       <c r="D231" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -13432,7 +13432,7 @@
         <v>8</v>
       </c>
       <c r="D232" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -13446,7 +13446,7 @@
         <v>9</v>
       </c>
       <c r="D233" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -13460,7 +13460,7 @@
         <v>9</v>
       </c>
       <c r="D234" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -13474,7 +13474,7 @@
         <v>8</v>
       </c>
       <c r="D235" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
@@ -13488,7 +13488,7 @@
         <v>7</v>
       </c>
       <c r="D236" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -13502,7 +13502,7 @@
         <v>7</v>
       </c>
       <c r="D237" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -13516,7 +13516,7 @@
         <v>7</v>
       </c>
       <c r="D238" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -13530,7 +13530,7 @@
         <v>7</v>
       </c>
       <c r="D239" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240">
@@ -13544,7 +13544,7 @@
         <v>7</v>
       </c>
       <c r="D240" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="241">
@@ -13558,7 +13558,7 @@
         <v>7</v>
       </c>
       <c r="D241" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242">
@@ -13572,7 +13572,7 @@
         <v>7</v>
       </c>
       <c r="D242" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="243">
@@ -13586,7 +13586,7 @@
         <v>7</v>
       </c>
       <c r="D243" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244">
@@ -13600,7 +13600,7 @@
         <v>7</v>
       </c>
       <c r="D244" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245">
@@ -13614,7 +13614,7 @@
         <v>7</v>
       </c>
       <c r="D245" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
@@ -13628,7 +13628,7 @@
         <v>7</v>
       </c>
       <c r="D246" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="247">
@@ -13642,7 +13642,7 @@
         <v>6</v>
       </c>
       <c r="D247" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="248">
@@ -13656,7 +13656,7 @@
         <v>6</v>
       </c>
       <c r="D248" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="249">
@@ -13670,7 +13670,7 @@
         <v>6</v>
       </c>
       <c r="D249" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250">
@@ -13684,7 +13684,7 @@
         <v>6</v>
       </c>
       <c r="D250" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251">
@@ -13698,7 +13698,7 @@
         <v>6</v>
       </c>
       <c r="D251" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252">
@@ -13712,7 +13712,7 @@
         <v>6</v>
       </c>
       <c r="D252" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253">
@@ -13726,7 +13726,7 @@
         <v>6</v>
       </c>
       <c r="D253" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254">
@@ -13740,7 +13740,7 @@
         <v>6</v>
       </c>
       <c r="D254" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="255">
@@ -13754,7 +13754,7 @@
         <v>6</v>
       </c>
       <c r="D255" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256">
@@ -13768,7 +13768,7 @@
         <v>6</v>
       </c>
       <c r="D256" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="257">
@@ -13782,7 +13782,7 @@
         <v>6</v>
       </c>
       <c r="D257" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="258">
@@ -13796,7 +13796,7 @@
         <v>6</v>
       </c>
       <c r="D258" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="259">
@@ -13922,7 +13922,7 @@
         <v>8</v>
       </c>
       <c r="D267" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -13936,7 +13936,7 @@
         <v>8</v>
       </c>
       <c r="D268" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -13950,7 +13950,7 @@
         <v>9</v>
       </c>
       <c r="D269" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -13964,7 +13964,7 @@
         <v>9</v>
       </c>
       <c r="D270" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271">
@@ -13978,7 +13978,7 @@
         <v>9</v>
       </c>
       <c r="D271" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -13992,7 +13992,7 @@
         <v>9</v>
       </c>
       <c r="D272" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -14006,7 +14006,7 @@
         <v>9</v>
       </c>
       <c r="D273" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
@@ -14020,7 +14020,7 @@
         <v>9</v>
       </c>
       <c r="D274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -14034,7 +14034,7 @@
         <v>9</v>
       </c>
       <c r="D275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -14048,7 +14048,7 @@
         <v>9</v>
       </c>
       <c r="D276" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -14062,7 +14062,7 @@
         <v>9</v>
       </c>
       <c r="D277" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -14076,7 +14076,7 @@
         <v>9</v>
       </c>
       <c r="D278" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279">
@@ -14104,7 +14104,7 @@
         <v>9</v>
       </c>
       <c r="D280" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281">
@@ -14118,7 +14118,7 @@
         <v>9</v>
       </c>
       <c r="D281" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282">
@@ -14132,7 +14132,7 @@
         <v>9</v>
       </c>
       <c r="D282" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -14160,7 +14160,7 @@
         <v>10</v>
       </c>
       <c r="D284" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -14174,7 +14174,7 @@
         <v>10</v>
       </c>
       <c r="D285" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -14188,7 +14188,7 @@
         <v>10</v>
       </c>
       <c r="D286" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -14202,7 +14202,7 @@
         <v>10</v>
       </c>
       <c r="D287" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -14216,7 +14216,7 @@
         <v>10</v>
       </c>
       <c r="D288" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -14230,7 +14230,7 @@
         <v>10</v>
       </c>
       <c r="D289" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -14314,7 +14314,7 @@
         <v>13</v>
       </c>
       <c r="D295" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296">
@@ -14328,7 +14328,7 @@
         <v>13</v>
       </c>
       <c r="D296" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297">
@@ -14342,7 +14342,7 @@
         <v>13</v>
       </c>
       <c r="D297" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -14356,7 +14356,7 @@
         <v>13</v>
       </c>
       <c r="D298" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
@@ -14370,7 +14370,7 @@
         <v>13</v>
       </c>
       <c r="D299" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -14384,7 +14384,7 @@
         <v>12</v>
       </c>
       <c r="D300" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -14398,7 +14398,7 @@
         <v>11</v>
       </c>
       <c r="D301" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302">
@@ -14412,7 +14412,7 @@
         <v>13</v>
       </c>
       <c r="D302" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="303">
@@ -14426,7 +14426,7 @@
         <v>13</v>
       </c>
       <c r="D303" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="304">
@@ -14440,7 +14440,7 @@
         <v>13</v>
       </c>
       <c r="D304" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="305">
@@ -14454,7 +14454,7 @@
         <v>13</v>
       </c>
       <c r="D305" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="306">
@@ -14468,7 +14468,7 @@
         <v>13</v>
       </c>
       <c r="D306" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="307">
@@ -14496,7 +14496,7 @@
         <v>13</v>
       </c>
       <c r="D308" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309">
@@ -14510,7 +14510,7 @@
         <v>12</v>
       </c>
       <c r="D309" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310">
@@ -14524,7 +14524,7 @@
         <v>11</v>
       </c>
       <c r="D310" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311">
@@ -14538,7 +14538,7 @@
         <v>13</v>
       </c>
       <c r="D311" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="312">
@@ -14552,7 +14552,7 @@
         <v>13</v>
       </c>
       <c r="D312" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313">
@@ -14566,7 +14566,7 @@
         <v>13</v>
       </c>
       <c r="D313" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -14580,7 +14580,7 @@
         <v>13</v>
       </c>
       <c r="D314" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -14594,7 +14594,7 @@
         <v>13</v>
       </c>
       <c r="D315" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -14608,7 +14608,7 @@
         <v>12</v>
       </c>
       <c r="D316" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -14622,7 +14622,7 @@
         <v>11</v>
       </c>
       <c r="D317" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -14636,7 +14636,7 @@
         <v>11</v>
       </c>
       <c r="D318" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -14650,7 +14650,7 @@
         <v>11</v>
       </c>
       <c r="D319" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -14664,7 +14664,7 @@
         <v>11</v>
       </c>
       <c r="D320" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -14678,7 +14678,7 @@
         <v>11</v>
       </c>
       <c r="D321" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -14692,7 +14692,7 @@
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -14706,7 +14706,7 @@
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -14720,7 +14720,7 @@
         <v>11</v>
       </c>
       <c r="D324" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -14734,7 +14734,7 @@
         <v>11</v>
       </c>
       <c r="D325" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -14748,7 +14748,7 @@
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -14762,7 +14762,7 @@
         <v>13</v>
       </c>
       <c r="D327" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="328">
@@ -14776,7 +14776,7 @@
         <v>12</v>
       </c>
       <c r="D328" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="329">
@@ -14790,7 +14790,7 @@
         <v>11</v>
       </c>
       <c r="D329" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330">
@@ -14804,7 +14804,7 @@
         <v>11</v>
       </c>
       <c r="D330" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -14818,7 +14818,7 @@
         <v>11</v>
       </c>
       <c r="D331" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -14832,7 +14832,7 @@
         <v>11</v>
       </c>
       <c r="D332" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333">
@@ -14846,7 +14846,7 @@
         <v>11</v>
       </c>
       <c r="D333" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -14860,7 +14860,7 @@
         <v>11</v>
       </c>
       <c r="D334" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -14874,7 +14874,7 @@
         <v>11</v>
       </c>
       <c r="D335" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -14888,7 +14888,7 @@
         <v>11</v>
       </c>
       <c r="D336" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -14902,7 +14902,7 @@
         <v>11</v>
       </c>
       <c r="D337" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338">
@@ -14916,7 +14916,7 @@
         <v>11</v>
       </c>
       <c r="D338" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339">
@@ -14930,7 +14930,7 @@
         <v>11</v>
       </c>
       <c r="D339" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340">
@@ -14944,7 +14944,7 @@
         <v>10</v>
       </c>
       <c r="D340" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341">
@@ -14958,7 +14958,7 @@
         <v>9</v>
       </c>
       <c r="D341" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342">
@@ -14972,7 +14972,7 @@
         <v>9</v>
       </c>
       <c r="D342" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="343">
@@ -14986,7 +14986,7 @@
         <v>8</v>
       </c>
       <c r="D343" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="344">
@@ -15000,7 +15000,7 @@
         <v>8</v>
       </c>
       <c r="D344" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345">
@@ -15014,7 +15014,7 @@
         <v>8</v>
       </c>
       <c r="D345" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -15028,7 +15028,7 @@
         <v>8</v>
       </c>
       <c r="D346" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347">
@@ -15042,7 +15042,7 @@
         <v>8</v>
       </c>
       <c r="D347" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348">
@@ -15056,7 +15056,7 @@
         <v>8</v>
       </c>
       <c r="D348" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
@@ -15070,7 +15070,7 @@
         <v>8</v>
       </c>
       <c r="D349" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350">
@@ -15084,7 +15084,7 @@
         <v>8</v>
       </c>
       <c r="D350" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351">
@@ -15098,7 +15098,7 @@
         <v>8</v>
       </c>
       <c r="D351" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352">
@@ -15112,7 +15112,7 @@
         <v>8</v>
       </c>
       <c r="D352" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -15126,7 +15126,7 @@
         <v>9</v>
       </c>
       <c r="D353" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354">
@@ -15140,7 +15140,7 @@
         <v>9</v>
       </c>
       <c r="D354" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -15154,7 +15154,7 @@
         <v>9</v>
       </c>
       <c r="D355" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356">
@@ -15168,7 +15168,7 @@
         <v>9</v>
       </c>
       <c r="D356" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -15182,7 +15182,7 @@
         <v>9</v>
       </c>
       <c r="D357" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -15196,7 +15196,7 @@
         <v>9</v>
       </c>
       <c r="D358" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -15210,7 +15210,7 @@
         <v>9</v>
       </c>
       <c r="D359" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -15224,7 +15224,7 @@
         <v>9</v>
       </c>
       <c r="D360" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
@@ -15238,7 +15238,7 @@
         <v>9</v>
       </c>
       <c r="D361" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -15252,7 +15252,7 @@
         <v>9</v>
       </c>
       <c r="D362" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -15266,7 +15266,7 @@
         <v>9</v>
       </c>
       <c r="D363" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -15280,7 +15280,7 @@
         <v>9</v>
       </c>
       <c r="D364" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365">
@@ -15294,7 +15294,7 @@
         <v>9</v>
       </c>
       <c r="D365" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366">
@@ -15308,7 +15308,7 @@
         <v>8</v>
       </c>
       <c r="D366" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367">
@@ -15322,7 +15322,7 @@
         <v>7</v>
       </c>
       <c r="D367" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368">
@@ -15336,7 +15336,7 @@
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -15350,7 +15350,7 @@
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="370">
@@ -15364,7 +15364,7 @@
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -15378,7 +15378,7 @@
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -15392,7 +15392,7 @@
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -15406,7 +15406,7 @@
         <v>7</v>
       </c>
       <c r="D373" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -15420,7 +15420,7 @@
         <v>7</v>
       </c>
       <c r="D374" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="375">
@@ -15434,7 +15434,7 @@
         <v>7</v>
       </c>
       <c r="D375" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="376">
@@ -15448,7 +15448,7 @@
         <v>7</v>
       </c>
       <c r="D376" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377">
@@ -15462,7 +15462,7 @@
         <v>7</v>
       </c>
       <c r="D377" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="378">
@@ -15476,7 +15476,7 @@
         <v>7</v>
       </c>
       <c r="D378" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="379">
@@ -15490,7 +15490,7 @@
         <v>7</v>
       </c>
       <c r="D379" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="380">
@@ -15504,7 +15504,7 @@
         <v>8</v>
       </c>
       <c r="D380" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381">
@@ -15518,7 +15518,7 @@
         <v>8</v>
       </c>
       <c r="D381" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="382">
@@ -15532,7 +15532,7 @@
         <v>8</v>
       </c>
       <c r="D382" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -15546,7 +15546,7 @@
         <v>8</v>
       </c>
       <c r="D383" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -15560,7 +15560,7 @@
         <v>8</v>
       </c>
       <c r="D384" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385">
@@ -15574,7 +15574,7 @@
         <v>8</v>
       </c>
       <c r="D385" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="386">
@@ -15588,7 +15588,7 @@
         <v>8</v>
       </c>
       <c r="D386" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387">
@@ -15602,7 +15602,7 @@
         <v>8</v>
       </c>
       <c r="D387" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388">
@@ -15616,7 +15616,7 @@
         <v>8</v>
       </c>
       <c r="D388" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="389">
@@ -15630,7 +15630,7 @@
         <v>8</v>
       </c>
       <c r="D389" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390">
@@ -15644,7 +15644,7 @@
         <v>12</v>
       </c>
       <c r="D390" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="391">
@@ -15672,7 +15672,7 @@
         <v>12</v>
       </c>
       <c r="D392" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="393">
@@ -15686,7 +15686,7 @@
         <v>13</v>
       </c>
       <c r="D393" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="394">
@@ -15700,7 +15700,7 @@
         <v>12</v>
       </c>
       <c r="D394" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="395">
@@ -15714,7 +15714,7 @@
         <v>13</v>
       </c>
       <c r="D395" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="396">
@@ -15728,7 +15728,7 @@
         <v>12</v>
       </c>
       <c r="D396" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="397">
@@ -15742,7 +15742,7 @@
         <v>11</v>
       </c>
       <c r="D397" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398">
@@ -15756,7 +15756,7 @@
         <v>11</v>
       </c>
       <c r="D398" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399">
@@ -15770,7 +15770,7 @@
         <v>12</v>
       </c>
       <c r="D399" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400">
@@ -15784,7 +15784,7 @@
         <v>12</v>
       </c>
       <c r="D400" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="401">
@@ -15798,7 +15798,7 @@
         <v>12</v>
       </c>
       <c r="D401" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="402">
@@ -15826,7 +15826,7 @@
         <v>12</v>
       </c>
       <c r="D403" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
@@ -15924,7 +15924,7 @@
         <v>13</v>
       </c>
       <c r="D410" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411">
@@ -15952,7 +15952,7 @@
         <v>12</v>
       </c>
       <c r="D412" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413">
@@ -15966,7 +15966,7 @@
         <v>11</v>
       </c>
       <c r="D413" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="414">
@@ -15980,7 +15980,7 @@
         <v>11</v>
       </c>
       <c r="D414" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415">
@@ -15994,7 +15994,7 @@
         <v>13</v>
       </c>
       <c r="D415" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416">
@@ -16008,7 +16008,7 @@
         <v>13</v>
       </c>
       <c r="D416" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417">
@@ -16120,7 +16120,7 @@
         <v>13</v>
       </c>
       <c r="D424" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="425">
@@ -16134,7 +16134,7 @@
         <v>13</v>
       </c>
       <c r="D425" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="426">
@@ -16148,7 +16148,7 @@
         <v>13</v>
       </c>
       <c r="D426" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="427">
@@ -16246,7 +16246,7 @@
         <v>13</v>
       </c>
       <c r="D433" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434">
@@ -16260,7 +16260,7 @@
         <v>13</v>
       </c>
       <c r="D434" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435">
@@ -16274,7 +16274,7 @@
         <v>13</v>
       </c>
       <c r="D435" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="436">
@@ -16288,7 +16288,7 @@
         <v>13</v>
       </c>
       <c r="D436" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="437">
@@ -16302,7 +16302,7 @@
         <v>13</v>
       </c>
       <c r="D437" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="438">
@@ -16316,7 +16316,7 @@
         <v>13</v>
       </c>
       <c r="D438" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="439">
@@ -16330,7 +16330,7 @@
         <v>13</v>
       </c>
       <c r="D439" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="440">
@@ -16344,7 +16344,7 @@
         <v>13</v>
       </c>
       <c r="D440" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="441">
@@ -16358,7 +16358,7 @@
         <v>13</v>
       </c>
       <c r="D441" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="442">
@@ -16386,7 +16386,7 @@
         <v>12</v>
       </c>
       <c r="D443" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="444">
@@ -16400,7 +16400,7 @@
         <v>12</v>
       </c>
       <c r="D444" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="445">
@@ -16414,7 +16414,7 @@
         <v>13</v>
       </c>
       <c r="D445" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="446">
@@ -16428,7 +16428,7 @@
         <v>13</v>
       </c>
       <c r="D446" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="447">
@@ -16442,7 +16442,7 @@
         <v>13</v>
       </c>
       <c r="D447" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="448">
@@ -16470,7 +16470,7 @@
         <v>13</v>
       </c>
       <c r="D449" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450">
@@ -16484,7 +16484,7 @@
         <v>13</v>
       </c>
       <c r="D450" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="451">
@@ -16498,7 +16498,7 @@
         <v>13</v>
       </c>
       <c r="D451" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="452">
@@ -16512,7 +16512,7 @@
         <v>12</v>
       </c>
       <c r="D452" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453">
@@ -16526,7 +16526,7 @@
         <v>12</v>
       </c>
       <c r="D453" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="454">
@@ -16540,7 +16540,7 @@
         <v>12</v>
       </c>
       <c r="D454" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="455">
@@ -16554,7 +16554,7 @@
         <v>12</v>
       </c>
       <c r="D455" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="456">
@@ -16568,7 +16568,7 @@
         <v>13</v>
       </c>
       <c r="D456" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="457">
@@ -16582,7 +16582,7 @@
         <v>13</v>
       </c>
       <c r="D457" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="458">
@@ -16596,7 +16596,7 @@
         <v>13</v>
       </c>
       <c r="D458" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="459">
@@ -16610,7 +16610,7 @@
         <v>13</v>
       </c>
       <c r="D459" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="460">
@@ -16624,7 +16624,7 @@
         <v>13</v>
       </c>
       <c r="D460" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="461">
@@ -16638,7 +16638,7 @@
         <v>13</v>
       </c>
       <c r="D461" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="462">
@@ -16652,7 +16652,7 @@
         <v>13</v>
       </c>
       <c r="D462" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463">
@@ -16694,7 +16694,7 @@
         <v>13</v>
       </c>
       <c r="D465" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="466">
@@ -16722,7 +16722,7 @@
         <v>13</v>
       </c>
       <c r="D467" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="468">
@@ -16736,7 +16736,7 @@
         <v>13</v>
       </c>
       <c r="D468" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="469">
@@ -16750,7 +16750,7 @@
         <v>13</v>
       </c>
       <c r="D469" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470">
@@ -16764,7 +16764,7 @@
         <v>13</v>
       </c>
       <c r="D470" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="471">
@@ -16820,7 +16820,7 @@
         <v>13</v>
       </c>
       <c r="D474" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="475">
@@ -16834,7 +16834,7 @@
         <v>13</v>
       </c>
       <c r="D475" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="476">
@@ -16848,7 +16848,7 @@
         <v>12</v>
       </c>
       <c r="D476" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477">
@@ -16862,7 +16862,7 @@
         <v>13</v>
       </c>
       <c r="D477" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="478">
@@ -16876,7 +16876,7 @@
         <v>13</v>
       </c>
       <c r="D478" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479">
@@ -16890,7 +16890,7 @@
         <v>12</v>
       </c>
       <c r="D479" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="480">
@@ -16904,7 +16904,7 @@
         <v>13</v>
       </c>
       <c r="D480" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="481">
@@ -16918,7 +16918,7 @@
         <v>12</v>
       </c>
       <c r="D481" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="482">
@@ -16932,7 +16932,7 @@
         <v>12</v>
       </c>
       <c r="D482" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483">
@@ -16946,7 +16946,7 @@
         <v>12</v>
       </c>
       <c r="D483" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="484">
@@ -16960,7 +16960,7 @@
         <v>12</v>
       </c>
       <c r="D484" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485">
@@ -16974,7 +16974,7 @@
         <v>12</v>
       </c>
       <c r="D485" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486">
@@ -16988,7 +16988,7 @@
         <v>12</v>
       </c>
       <c r="D486" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487">
@@ -17002,7 +17002,7 @@
         <v>12</v>
       </c>
       <c r="D487" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="488">
@@ -17016,7 +17016,7 @@
         <v>11</v>
       </c>
       <c r="D488" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489">
@@ -17030,7 +17030,7 @@
         <v>11</v>
       </c>
       <c r="D489" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490">
@@ -17044,7 +17044,7 @@
         <v>12</v>
       </c>
       <c r="D490" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="491">
@@ -17058,7 +17058,7 @@
         <v>13</v>
       </c>
       <c r="D491" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="492">
@@ -17072,7 +17072,7 @@
         <v>13</v>
       </c>
       <c r="D492" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="493">
@@ -17086,7 +17086,7 @@
         <v>13</v>
       </c>
       <c r="D493" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="494">
@@ -17100,7 +17100,7 @@
         <v>13</v>
       </c>
       <c r="D494" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="495">
@@ -17114,7 +17114,7 @@
         <v>13</v>
       </c>
       <c r="D495" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="496">
@@ -17128,7 +17128,7 @@
         <v>13</v>
       </c>
       <c r="D496" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497">
@@ -17142,7 +17142,7 @@
         <v>13</v>
       </c>
       <c r="D497" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="498">
@@ -17156,7 +17156,7 @@
         <v>13</v>
       </c>
       <c r="D498" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499">
@@ -17170,7 +17170,7 @@
         <v>13</v>
       </c>
       <c r="D499" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500">
@@ -17184,7 +17184,7 @@
         <v>13</v>
       </c>
       <c r="D500" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501">
@@ -17198,7 +17198,7 @@
         <v>13</v>
       </c>
       <c r="D501" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="502">
@@ -17212,7 +17212,7 @@
         <v>13</v>
       </c>
       <c r="D502" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503">
@@ -17226,7 +17226,7 @@
         <v>13</v>
       </c>
       <c r="D503" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="504">
@@ -17240,7 +17240,7 @@
         <v>13</v>
       </c>
       <c r="D504" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="505">
@@ -17254,7 +17254,7 @@
         <v>12</v>
       </c>
       <c r="D505" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="506">
@@ -17268,7 +17268,7 @@
         <v>13</v>
       </c>
       <c r="D506" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="507">
@@ -17282,7 +17282,7 @@
         <v>13</v>
       </c>
       <c r="D507" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="508">
@@ -17296,7 +17296,7 @@
         <v>13</v>
       </c>
       <c r="D508" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
@@ -17310,7 +17310,7 @@
         <v>13</v>
       </c>
       <c r="D509" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510">
@@ -17324,7 +17324,7 @@
         <v>13</v>
       </c>
       <c r="D510" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
@@ -17338,7 +17338,7 @@
         <v>13</v>
       </c>
       <c r="D511" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512">
@@ -17352,7 +17352,7 @@
         <v>13</v>
       </c>
       <c r="D512" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513">
@@ -17366,7 +17366,7 @@
         <v>13</v>
       </c>
       <c r="D513" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514">
@@ -17380,7 +17380,7 @@
         <v>13</v>
       </c>
       <c r="D514" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515">
@@ -17394,7 +17394,7 @@
         <v>13</v>
       </c>
       <c r="D515" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516">
@@ -17408,7 +17408,7 @@
         <v>13</v>
       </c>
       <c r="D516" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517">
@@ -17422,7 +17422,7 @@
         <v>13</v>
       </c>
       <c r="D517" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518">
@@ -17436,7 +17436,7 @@
         <v>13</v>
       </c>
       <c r="D518" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519">
@@ -17450,7 +17450,7 @@
         <v>13</v>
       </c>
       <c r="D519" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520">
@@ -17464,7 +17464,7 @@
         <v>13</v>
       </c>
       <c r="D520" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="521">
@@ -17478,7 +17478,7 @@
         <v>12</v>
       </c>
       <c r="D521" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522">
@@ -17492,7 +17492,7 @@
         <v>11</v>
       </c>
       <c r="D522" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523">
@@ -17506,7 +17506,7 @@
         <v>11</v>
       </c>
       <c r="D523" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
@@ -17520,7 +17520,7 @@
         <v>10</v>
       </c>
       <c r="D524" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525">
@@ -17534,7 +17534,7 @@
         <v>10</v>
       </c>
       <c r="D525" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="526">
@@ -17548,7 +17548,7 @@
         <v>10</v>
       </c>
       <c r="D526" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527">
@@ -17562,7 +17562,7 @@
         <v>9</v>
       </c>
       <c r="D527" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528">
@@ -17576,7 +17576,7 @@
         <v>9</v>
       </c>
       <c r="D528" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529">
@@ -17590,7 +17590,7 @@
         <v>9</v>
       </c>
       <c r="D529" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="530">
@@ -17604,7 +17604,7 @@
         <v>9</v>
       </c>
       <c r="D530" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="531">
@@ -17618,7 +17618,7 @@
         <v>9</v>
       </c>
       <c r="D531" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532">
@@ -17632,7 +17632,7 @@
         <v>9</v>
       </c>
       <c r="D532" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533">
@@ -17646,7 +17646,7 @@
         <v>10</v>
       </c>
       <c r="D533" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534">
@@ -17660,7 +17660,7 @@
         <v>9</v>
       </c>
       <c r="D534" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535">
@@ -17674,7 +17674,7 @@
         <v>9</v>
       </c>
       <c r="D535" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536">
@@ -17688,7 +17688,7 @@
         <v>9</v>
       </c>
       <c r="D536" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537">
@@ -17702,7 +17702,7 @@
         <v>9</v>
       </c>
       <c r="D537" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538">
@@ -17716,7 +17716,7 @@
         <v>9</v>
       </c>
       <c r="D538" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539">
@@ -17730,7 +17730,7 @@
         <v>9</v>
       </c>
       <c r="D539" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540">
@@ -17744,7 +17744,7 @@
         <v>9</v>
       </c>
       <c r="D540" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541">
@@ -17758,7 +17758,7 @@
         <v>9</v>
       </c>
       <c r="D541" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542">
@@ -17772,7 +17772,7 @@
         <v>9</v>
       </c>
       <c r="D542" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543">
@@ -17786,7 +17786,7 @@
         <v>9</v>
       </c>
       <c r="D543" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
@@ -17800,7 +17800,7 @@
         <v>9</v>
       </c>
       <c r="D544" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545">
@@ -17814,7 +17814,7 @@
         <v>9</v>
       </c>
       <c r="D545" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546">
@@ -17828,7 +17828,7 @@
         <v>9</v>
       </c>
       <c r="D546" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
@@ -17842,7 +17842,7 @@
         <v>9</v>
       </c>
       <c r="D547" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548">
@@ -17856,7 +17856,7 @@
         <v>9</v>
       </c>
       <c r="D548" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="549">
@@ -17870,7 +17870,7 @@
         <v>9</v>
       </c>
       <c r="D549" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550">
@@ -17884,7 +17884,7 @@
         <v>9</v>
       </c>
       <c r="D550" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="551">
@@ -17898,7 +17898,7 @@
         <v>9</v>
       </c>
       <c r="D551" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552">
@@ -17912,7 +17912,7 @@
         <v>9</v>
       </c>
       <c r="D552" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553">
@@ -17926,7 +17926,7 @@
         <v>9</v>
       </c>
       <c r="D553" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="554">
@@ -17940,7 +17940,7 @@
         <v>9</v>
       </c>
       <c r="D554" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555">
@@ -17954,7 +17954,7 @@
         <v>9</v>
       </c>
       <c r="D555" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556">
@@ -17968,7 +17968,7 @@
         <v>9</v>
       </c>
       <c r="D556" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557">
@@ -17982,7 +17982,7 @@
         <v>9</v>
       </c>
       <c r="D557" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558">
@@ -17996,7 +17996,7 @@
         <v>9</v>
       </c>
       <c r="D558" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="559">
@@ -18010,7 +18010,7 @@
         <v>9</v>
       </c>
       <c r="D559" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="560">
@@ -18024,7 +18024,7 @@
         <v>9</v>
       </c>
       <c r="D560" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="561">
@@ -18038,7 +18038,7 @@
         <v>9</v>
       </c>
       <c r="D561" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="562">
@@ -18052,7 +18052,7 @@
         <v>9</v>
       </c>
       <c r="D562" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="563">
@@ -18066,7 +18066,7 @@
         <v>9</v>
       </c>
       <c r="D563" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="564">
@@ -18080,7 +18080,7 @@
         <v>9</v>
       </c>
       <c r="D564" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565">
@@ -18094,7 +18094,7 @@
         <v>9</v>
       </c>
       <c r="D565" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="566">
@@ -18108,7 +18108,7 @@
         <v>9</v>
       </c>
       <c r="D566" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="567">
@@ -18122,7 +18122,7 @@
         <v>9</v>
       </c>
       <c r="D567" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="568">
@@ -18136,7 +18136,7 @@
         <v>9</v>
       </c>
       <c r="D568" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569">
@@ -18150,7 +18150,7 @@
         <v>9</v>
       </c>
       <c r="D569" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570">
@@ -18164,7 +18164,7 @@
         <v>9</v>
       </c>
       <c r="D570" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="571">
@@ -18178,7 +18178,7 @@
         <v>10</v>
       </c>
       <c r="D571" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="572">
@@ -18192,7 +18192,7 @@
         <v>10</v>
       </c>
       <c r="D572" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573">
@@ -18206,7 +18206,7 @@
         <v>10</v>
       </c>
       <c r="D573" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="574">
@@ -18220,7 +18220,7 @@
         <v>10</v>
       </c>
       <c r="D574" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575">
@@ -18234,7 +18234,7 @@
         <v>10</v>
       </c>
       <c r="D575" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="576">
@@ -18248,7 +18248,7 @@
         <v>10</v>
       </c>
       <c r="D576" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="577">
@@ -18262,7 +18262,7 @@
         <v>10</v>
       </c>
       <c r="D577" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="578">
@@ -18276,7 +18276,7 @@
         <v>11</v>
       </c>
       <c r="D578" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="579">
@@ -18290,7 +18290,7 @@
         <v>11</v>
       </c>
       <c r="D579" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="580">
@@ -18304,7 +18304,7 @@
         <v>11</v>
       </c>
       <c r="D580" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581">
@@ -18318,7 +18318,7 @@
         <v>11</v>
       </c>
       <c r="D581" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="582">
@@ -18332,7 +18332,7 @@
         <v>13</v>
       </c>
       <c r="D582" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="583">
@@ -18346,7 +18346,7 @@
         <v>13</v>
       </c>
       <c r="D583" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584">
@@ -18360,7 +18360,7 @@
         <v>13</v>
       </c>
       <c r="D584" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585">
@@ -18374,7 +18374,7 @@
         <v>13</v>
       </c>
       <c r="D585" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586">
@@ -18388,7 +18388,7 @@
         <v>13</v>
       </c>
       <c r="D586" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587">
@@ -18402,7 +18402,7 @@
         <v>13</v>
       </c>
       <c r="D587" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588">
@@ -18416,7 +18416,7 @@
         <v>13</v>
       </c>
       <c r="D588" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589">
@@ -18430,7 +18430,7 @@
         <v>13</v>
       </c>
       <c r="D589" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -18444,7 +18444,7 @@
         <v>13</v>
       </c>
       <c r="D590" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -18458,7 +18458,7 @@
         <v>13</v>
       </c>
       <c r="D591" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592">
@@ -18472,7 +18472,7 @@
         <v>13</v>
       </c>
       <c r="D592" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -18486,7 +18486,7 @@
         <v>12</v>
       </c>
       <c r="D593" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594">
@@ -18500,7 +18500,7 @@
         <v>12</v>
       </c>
       <c r="D594" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595">
@@ -18514,7 +18514,7 @@
         <v>12</v>
       </c>
       <c r="D595" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
@@ -18528,7 +18528,7 @@
         <v>12</v>
       </c>
       <c r="D596" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597">
@@ -18542,7 +18542,7 @@
         <v>11</v>
       </c>
       <c r="D597" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -18556,7 +18556,7 @@
         <v>11</v>
       </c>
       <c r="D598" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -18570,7 +18570,7 @@
         <v>10</v>
       </c>
       <c r="D599" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -18584,7 +18584,7 @@
         <v>9</v>
       </c>
       <c r="D600" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -18598,7 +18598,7 @@
         <v>8</v>
       </c>
       <c r="D601" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -18612,7 +18612,7 @@
         <v>7</v>
       </c>
       <c r="D602" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -18626,7 +18626,7 @@
         <v>7</v>
       </c>
       <c r="D603" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -18640,7 +18640,7 @@
         <v>7</v>
       </c>
       <c r="D604" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605">
@@ -18654,7 +18654,7 @@
         <v>7</v>
       </c>
       <c r="D605" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606">
@@ -18668,7 +18668,7 @@
         <v>7</v>
       </c>
       <c r="D606" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -18682,7 +18682,7 @@
         <v>7</v>
       </c>
       <c r="D607" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="608">
@@ -18696,7 +18696,7 @@
         <v>7</v>
       </c>
       <c r="D608" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -18710,7 +18710,7 @@
         <v>7</v>
       </c>
       <c r="D609" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610">
@@ -18724,7 +18724,7 @@
         <v>7</v>
       </c>
       <c r="D610" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611">
@@ -18738,7 +18738,7 @@
         <v>7</v>
       </c>
       <c r="D611" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612">
@@ -18752,7 +18752,7 @@
         <v>7</v>
       </c>
       <c r="D612" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613">
@@ -18766,7 +18766,7 @@
         <v>7</v>
       </c>
       <c r="D613" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614">
@@ -18780,7 +18780,7 @@
         <v>7</v>
       </c>
       <c r="D614" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615">
@@ -18794,7 +18794,7 @@
         <v>7</v>
       </c>
       <c r="D615" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616">
@@ -18808,7 +18808,7 @@
         <v>7</v>
       </c>
       <c r="D616" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617">
@@ -18822,7 +18822,7 @@
         <v>7</v>
       </c>
       <c r="D617" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618">
@@ -18836,7 +18836,7 @@
         <v>7</v>
       </c>
       <c r="D618" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
@@ -18850,7 +18850,7 @@
         <v>7</v>
       </c>
       <c r="D619" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620">
@@ -18864,7 +18864,7 @@
         <v>7</v>
       </c>
       <c r="D620" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621">
@@ -18878,7 +18878,7 @@
         <v>7</v>
       </c>
       <c r="D621" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -18892,7 +18892,7 @@
         <v>7</v>
       </c>
       <c r="D622" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623">
@@ -18906,7 +18906,7 @@
         <v>7</v>
       </c>
       <c r="D623" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624">
@@ -18920,7 +18920,7 @@
         <v>7</v>
       </c>
       <c r="D624" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625">
@@ -18934,7 +18934,7 @@
         <v>7</v>
       </c>
       <c r="D625" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626">
@@ -18948,7 +18948,7 @@
         <v>7</v>
       </c>
       <c r="D626" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -18962,7 +18962,7 @@
         <v>7</v>
       </c>
       <c r="D627" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628">
@@ -18976,7 +18976,7 @@
         <v>7</v>
       </c>
       <c r="D628" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629">
@@ -18990,7 +18990,7 @@
         <v>7</v>
       </c>
       <c r="D629" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630">
@@ -19004,7 +19004,7 @@
         <v>6</v>
       </c>
       <c r="D630" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -19018,7 +19018,7 @@
         <v>5</v>
       </c>
       <c r="D631" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632">
@@ -19032,7 +19032,7 @@
         <v>5</v>
       </c>
       <c r="D632" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633">
@@ -19046,7 +19046,7 @@
         <v>5</v>
       </c>
       <c r="D633" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634">
@@ -19060,7 +19060,7 @@
         <v>5</v>
       </c>
       <c r="D634" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635">
@@ -19074,7 +19074,7 @@
         <v>5</v>
       </c>
       <c r="D635" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -19088,7 +19088,7 @@
         <v>5</v>
       </c>
       <c r="D636" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -19102,7 +19102,7 @@
         <v>5</v>
       </c>
       <c r="D637" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -19116,7 +19116,7 @@
         <v>5</v>
       </c>
       <c r="D638" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639">
@@ -19130,7 +19130,7 @@
         <v>5</v>
       </c>
       <c r="D639" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640">
@@ -19144,7 +19144,7 @@
         <v>5</v>
       </c>
       <c r="D640" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641">
@@ -19158,7 +19158,7 @@
         <v>5</v>
       </c>
       <c r="D641" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -19172,7 +19172,7 @@
         <v>5</v>
       </c>
       <c r="D642" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643">
@@ -19186,7 +19186,7 @@
         <v>5</v>
       </c>
       <c r="D643" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644">
@@ -19200,7 +19200,7 @@
         <v>5</v>
       </c>
       <c r="D644" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -19214,7 +19214,7 @@
         <v>5</v>
       </c>
       <c r="D645" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -19228,7 +19228,7 @@
         <v>5</v>
       </c>
       <c r="D646" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -19242,7 +19242,7 @@
         <v>5</v>
       </c>
       <c r="D647" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -19256,7 +19256,7 @@
         <v>5</v>
       </c>
       <c r="D648" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649">
@@ -19270,7 +19270,7 @@
         <v>5</v>
       </c>
       <c r="D649" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650">
@@ -19284,7 +19284,7 @@
         <v>5</v>
       </c>
       <c r="D650" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -19298,7 +19298,7 @@
         <v>5</v>
       </c>
       <c r="D651" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -19312,7 +19312,7 @@
         <v>5</v>
       </c>
       <c r="D652" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -19326,7 +19326,7 @@
         <v>5</v>
       </c>
       <c r="D653" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -19340,7 +19340,7 @@
         <v>5</v>
       </c>
       <c r="D654" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655">
@@ -19354,7 +19354,7 @@
         <v>5</v>
       </c>
       <c r="D655" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656">
@@ -19368,7 +19368,7 @@
         <v>5</v>
       </c>
       <c r="D656" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657">
@@ -19382,7 +19382,7 @@
         <v>5</v>
       </c>
       <c r="D657" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658">
@@ -19396,7 +19396,7 @@
         <v>5</v>
       </c>
       <c r="D658" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659">
@@ -19410,7 +19410,7 @@
         <v>5</v>
       </c>
       <c r="D659" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660">
@@ -19424,7 +19424,7 @@
         <v>5</v>
       </c>
       <c r="D660" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661">
@@ -19438,7 +19438,7 @@
         <v>5</v>
       </c>
       <c r="D661" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662">
@@ -19452,7 +19452,7 @@
         <v>5</v>
       </c>
       <c r="D662" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663">
@@ -19466,7 +19466,7 @@
         <v>5</v>
       </c>
       <c r="D663" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664">
@@ -19480,7 +19480,7 @@
         <v>4</v>
       </c>
       <c r="D664" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -19494,7 +19494,7 @@
         <v>4</v>
       </c>
       <c r="D665" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666">
@@ -19508,7 +19508,7 @@
         <v>3</v>
       </c>
       <c r="D666" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667">
@@ -19522,7 +19522,7 @@
         <v>3</v>
       </c>
       <c r="D667" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -19536,7 +19536,7 @@
         <v>3</v>
       </c>
       <c r="D668" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -19550,7 +19550,7 @@
         <v>3</v>
       </c>
       <c r="D669" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -19564,7 +19564,7 @@
         <v>3</v>
       </c>
       <c r="D670" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -19578,7 +19578,7 @@
         <v>3</v>
       </c>
       <c r="D671" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -19592,7 +19592,7 @@
         <v>3</v>
       </c>
       <c r="D672" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -19606,7 +19606,7 @@
         <v>3</v>
       </c>
       <c r="D673" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -19620,7 +19620,7 @@
         <v>3</v>
       </c>
       <c r="D674" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675">
@@ -19634,7 +19634,7 @@
         <v>3</v>
       </c>
       <c r="D675" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -19648,7 +19648,7 @@
         <v>3</v>
       </c>
       <c r="D676" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -19662,7 +19662,7 @@
         <v>2</v>
       </c>
       <c r="D677" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
@@ -19676,7 +19676,7 @@
         <v>2</v>
       </c>
       <c r="D678" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679">
@@ -19690,7 +19690,7 @@
         <v>2</v>
       </c>
       <c r="D679" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -19704,7 +19704,7 @@
         <v>2</v>
       </c>
       <c r="D680" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681">
@@ -19718,7 +19718,7 @@
         <v>2</v>
       </c>
       <c r="D681" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682">
@@ -19732,7 +19732,7 @@
         <v>2</v>
       </c>
       <c r="D682" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
@@ -19746,7 +19746,7 @@
         <v>2</v>
       </c>
       <c r="D683" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684">
@@ -19760,7 +19760,7 @@
         <v>2</v>
       </c>
       <c r="D684" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -19774,7 +19774,7 @@
         <v>2</v>
       </c>
       <c r="D685" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686">
@@ -19788,7 +19788,7 @@
         <v>2</v>
       </c>
       <c r="D686" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687">
@@ -19802,7 +19802,7 @@
         <v>2</v>
       </c>
       <c r="D687" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688">
@@ -19816,7 +19816,7 @@
         <v>2</v>
       </c>
       <c r="D688" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -19830,7 +19830,7 @@
         <v>1</v>
       </c>
       <c r="D689" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690">
@@ -19844,7 +19844,7 @@
         <v>1</v>
       </c>
       <c r="D690" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691">
@@ -19858,7 +19858,7 @@
         <v>0</v>
       </c>
       <c r="D691" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -19872,7 +19872,7 @@
         <v>0</v>
       </c>
       <c r="D692" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
       <c r="D693" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694">
@@ -19900,7 +19900,7 @@
         <v>0</v>
       </c>
       <c r="D694" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -19914,7 +19914,7 @@
         <v>0</v>
       </c>
       <c r="D695" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696">
@@ -19928,7 +19928,7 @@
         <v>0</v>
       </c>
       <c r="D696" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697">
@@ -19942,7 +19942,7 @@
         <v>0</v>
       </c>
       <c r="D697" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698">
@@ -19956,7 +19956,7 @@
         <v>0</v>
       </c>
       <c r="D698" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
@@ -19970,7 +19970,7 @@
         <v>0</v>
       </c>
       <c r="D699" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700">
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
       <c r="D700" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
@@ -19998,7 +19998,7 @@
         <v>0</v>
       </c>
       <c r="D701" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -20012,7 +20012,7 @@
         <v>0</v>
       </c>
       <c r="D702" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703">
@@ -20026,7 +20026,7 @@
         <v>0</v>
       </c>
       <c r="D703" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704">
@@ -20040,7 +20040,7 @@
         <v>0</v>
       </c>
       <c r="D704" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705">
@@ -20054,7 +20054,7 @@
         <v>0</v>
       </c>
       <c r="D705" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="706">
@@ -20068,7 +20068,7 @@
         <v>0</v>
       </c>
       <c r="D706" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
@@ -20082,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="D707" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708">
@@ -20096,7 +20096,7 @@
         <v>0</v>
       </c>
       <c r="D708" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -20110,7 +20110,7 @@
         <v>0</v>
       </c>
       <c r="D709" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -20124,7 +20124,7 @@
         <v>0</v>
       </c>
       <c r="D710" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -20138,7 +20138,7 @@
         <v>0</v>
       </c>
       <c r="D711" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -20152,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="D712" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713">
@@ -20166,7 +20166,7 @@
         <v>0</v>
       </c>
       <c r="D713" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -20180,7 +20180,7 @@
         <v>0</v>
       </c>
       <c r="D714" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -20194,7 +20194,7 @@
         <v>0</v>
       </c>
       <c r="D715" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
@@ -20208,7 +20208,7 @@
         <v>0</v>
       </c>
       <c r="D716" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717">
@@ -20222,7 +20222,7 @@
         <v>0</v>
       </c>
       <c r="D717" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718">
@@ -20236,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="D718" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -20250,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="D719" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -20264,7 +20264,7 @@
         <v>0</v>
       </c>
       <c r="D720" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -20278,7 +20278,7 @@
         <v>0</v>
       </c>
       <c r="D721" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -20292,7 +20292,7 @@
         <v>0</v>
       </c>
       <c r="D722" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723">
@@ -20306,7 +20306,7 @@
         <v>0</v>
       </c>
       <c r="D723" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724">
@@ -20320,7 +20320,7 @@
         <v>0</v>
       </c>
       <c r="D724" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725">
@@ -20334,7 +20334,7 @@
         <v>0</v>
       </c>
       <c r="D725" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726">
@@ -20348,7 +20348,7 @@
         <v>0</v>
       </c>
       <c r="D726" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -20362,7 +20362,7 @@
         <v>0</v>
       </c>
       <c r="D727" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728">
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
       <c r="D728" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729">
@@ -20390,7 +20390,7 @@
         <v>0</v>
       </c>
       <c r="D729" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730">
@@ -20404,7 +20404,7 @@
         <v>0</v>
       </c>
       <c r="D730" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731">
@@ -20418,7 +20418,7 @@
         <v>0</v>
       </c>
       <c r="D731" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="732">
@@ -20432,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="D732" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -20446,7 +20446,7 @@
         <v>0</v>
       </c>
       <c r="D733" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="734">
@@ -20460,7 +20460,7 @@
         <v>0</v>
       </c>
       <c r="D734" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735">
@@ -20474,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="D735" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="736">
@@ -20488,7 +20488,7 @@
         <v>0</v>
       </c>
       <c r="D736" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="737">
@@ -20502,7 +20502,7 @@
         <v>0</v>
       </c>
       <c r="D737" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="738">
@@ -20516,7 +20516,7 @@
         <v>0</v>
       </c>
       <c r="D738" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -20530,7 +20530,7 @@
         <v>0</v>
       </c>
       <c r="D739" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -20544,7 +20544,7 @@
         <v>0</v>
       </c>
       <c r="D740" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -20558,7 +20558,7 @@
         <v>0</v>
       </c>
       <c r="D741" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -20572,7 +20572,7 @@
         <v>0</v>
       </c>
       <c r="D742" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -20586,7 +20586,7 @@
         <v>0</v>
       </c>
       <c r="D743" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -20600,7 +20600,7 @@
         <v>0</v>
       </c>
       <c r="D744" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -20614,7 +20614,7 @@
         <v>0</v>
       </c>
       <c r="D745" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -20628,7 +20628,7 @@
         <v>0</v>
       </c>
       <c r="D746" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -20642,7 +20642,7 @@
         <v>0</v>
       </c>
       <c r="D747" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -20656,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="D748" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="749">
@@ -20670,7 +20670,7 @@
         <v>0</v>
       </c>
       <c r="D749" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="750">
@@ -20684,7 +20684,7 @@
         <v>0</v>
       </c>
       <c r="D750" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="751">
@@ -20698,7 +20698,7 @@
         <v>0</v>
       </c>
       <c r="D751" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="752">
@@ -20712,7 +20712,7 @@
         <v>0</v>
       </c>
       <c r="D752" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="753">
@@ -20726,7 +20726,7 @@
         <v>0</v>
       </c>
       <c r="D753" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754">
@@ -20740,7 +20740,7 @@
         <v>0</v>
       </c>
       <c r="D754" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="755">
@@ -20754,7 +20754,7 @@
         <v>0</v>
       </c>
       <c r="D755" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756">
@@ -20768,7 +20768,7 @@
         <v>0</v>
       </c>
       <c r="D756" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -20782,7 +20782,7 @@
         <v>0</v>
       </c>
       <c r="D757" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="758">
@@ -20796,7 +20796,7 @@
         <v>0</v>
       </c>
       <c r="D758" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -20810,7 +20810,7 @@
         <v>0</v>
       </c>
       <c r="D759" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="760">
@@ -20824,7 +20824,7 @@
         <v>0</v>
       </c>
       <c r="D760" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761">
@@ -20838,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="D761" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="762">
@@ -20852,7 +20852,7 @@
         <v>0</v>
       </c>
       <c r="D762" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -20866,7 +20866,7 @@
         <v>0</v>
       </c>
       <c r="D763" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="764">
@@ -20880,7 +20880,7 @@
         <v>0</v>
       </c>
       <c r="D764" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765">
@@ -20894,7 +20894,7 @@
         <v>0</v>
       </c>
       <c r="D765" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -20908,7 +20908,7 @@
         <v>0</v>
       </c>
       <c r="D766" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="767">
@@ -20922,7 +20922,7 @@
         <v>0</v>
       </c>
       <c r="D767" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="768">
@@ -20936,7 +20936,7 @@
         <v>0</v>
       </c>
       <c r="D768" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -20950,7 +20950,7 @@
         <v>0</v>
       </c>
       <c r="D769" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
@@ -20964,7 +20964,7 @@
         <v>0</v>
       </c>
       <c r="D770" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="771">
@@ -20978,7 +20978,7 @@
         <v>0</v>
       </c>
       <c r="D771" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772">
@@ -20992,7 +20992,7 @@
         <v>0</v>
       </c>
       <c r="D772" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="773">
@@ -21006,7 +21006,7 @@
         <v>0</v>
       </c>
       <c r="D773" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="774">
@@ -21020,7 +21020,7 @@
         <v>0</v>
       </c>
       <c r="D774" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775">
@@ -21034,7 +21034,7 @@
         <v>0</v>
       </c>
       <c r="D775" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="776">
@@ -21048,7 +21048,7 @@
         <v>0</v>
       </c>
       <c r="D776" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -21062,7 +21062,7 @@
         <v>0</v>
       </c>
       <c r="D777" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778">
@@ -21076,7 +21076,7 @@
         <v>0</v>
       </c>
       <c r="D778" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779">
@@ -21090,7 +21090,7 @@
         <v>0</v>
       </c>
       <c r="D779" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780">
@@ -21104,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="D780" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781">
@@ -21118,7 +21118,7 @@
         <v>0</v>
       </c>
       <c r="D781" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782">
@@ -21132,7 +21132,7 @@
         <v>0</v>
       </c>
       <c r="D782" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783">
@@ -21146,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="D783" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="784">
@@ -21160,7 +21160,7 @@
         <v>0</v>
       </c>
       <c r="D784" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -21174,7 +21174,7 @@
         <v>0</v>
       </c>
       <c r="D785" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786">
@@ -21188,7 +21188,7 @@
         <v>0</v>
       </c>
       <c r="D786" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787">
@@ -21202,7 +21202,7 @@
         <v>0</v>
       </c>
       <c r="D787" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788">
@@ -21216,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="D788" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789">
@@ -21230,7 +21230,7 @@
         <v>0</v>
       </c>
       <c r="D789" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790">
@@ -21244,7 +21244,7 @@
         <v>0</v>
       </c>
       <c r="D790" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791">
@@ -21258,7 +21258,7 @@
         <v>0</v>
       </c>
       <c r="D791" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792">
@@ -21272,7 +21272,7 @@
         <v>0</v>
       </c>
       <c r="D792" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793">
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
       <c r="D793" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -21300,7 +21300,7 @@
         <v>0</v>
       </c>
       <c r="D794" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795">
@@ -21314,7 +21314,7 @@
         <v>0</v>
       </c>
       <c r="D795" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796">
@@ -21328,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="D796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797">
@@ -21342,7 +21342,7 @@
         <v>0</v>
       </c>
       <c r="D797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798">
@@ -21356,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="D798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799">
@@ -21370,7 +21370,7 @@
         <v>0</v>
       </c>
       <c r="D799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800">
@@ -21384,7 +21384,7 @@
         <v>0</v>
       </c>
       <c r="D800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801">
@@ -21398,7 +21398,7 @@
         <v>0</v>
       </c>
       <c r="D801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802">
@@ -21412,7 +21412,7 @@
         <v>0</v>
       </c>
       <c r="D802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803">
@@ -21426,7 +21426,7 @@
         <v>0</v>
       </c>
       <c r="D803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
@@ -21440,7 +21440,7 @@
         <v>0</v>
       </c>
       <c r="D804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805">
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="D805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806">
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="D806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807">
@@ -21482,7 +21482,7 @@
         <v>0</v>
       </c>
       <c r="D807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -21496,7 +21496,7 @@
         <v>0</v>
       </c>
       <c r="D808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809">
@@ -21510,7 +21510,7 @@
         <v>0</v>
       </c>
       <c r="D809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810">
@@ -21524,7 +21524,7 @@
         <v>0</v>
       </c>
       <c r="D810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811">
@@ -21538,7 +21538,7 @@
         <v>0</v>
       </c>
       <c r="D811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812">
@@ -21552,7 +21552,7 @@
         <v>0</v>
       </c>
       <c r="D812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813">
@@ -21566,7 +21566,7 @@
         <v>0</v>
       </c>
       <c r="D813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814">
@@ -21580,7 +21580,7 @@
         <v>0</v>
       </c>
       <c r="D814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815">
@@ -21594,7 +21594,7 @@
         <v>0</v>
       </c>
       <c r="D815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816">
@@ -21608,7 +21608,7 @@
         <v>0</v>
       </c>
       <c r="D816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817">
@@ -21622,7 +21622,7 @@
         <v>0</v>
       </c>
       <c r="D817" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818">
@@ -21636,7 +21636,7 @@
         <v>0</v>
       </c>
       <c r="D818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819">
@@ -21650,7 +21650,7 @@
         <v>0</v>
       </c>
       <c r="D819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -21664,7 +21664,7 @@
         <v>0</v>
       </c>
       <c r="D820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821">
@@ -21678,7 +21678,7 @@
         <v>0</v>
       </c>
       <c r="D821" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822">
@@ -21692,7 +21692,7 @@
         <v>0</v>
       </c>
       <c r="D822" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823">
@@ -21706,7 +21706,7 @@
         <v>0</v>
       </c>
       <c r="D823" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824">
@@ -21720,7 +21720,7 @@
         <v>0</v>
       </c>
       <c r="D824" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825">
@@ -21734,7 +21734,7 @@
         <v>0</v>
       </c>
       <c r="D825" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826">
@@ -21748,7 +21748,7 @@
         <v>0</v>
       </c>
       <c r="D826" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827">
@@ -21762,7 +21762,7 @@
         <v>0</v>
       </c>
       <c r="D827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828">
@@ -21776,7 +21776,7 @@
         <v>0</v>
       </c>
       <c r="D828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829">
@@ -21790,7 +21790,7 @@
         <v>0</v>
       </c>
       <c r="D829" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830">
@@ -21804,7 +21804,7 @@
         <v>0</v>
       </c>
       <c r="D830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831">
@@ -21818,7 +21818,7 @@
         <v>0</v>
       </c>
       <c r="D831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832">
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="D832" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -21846,7 +21846,7 @@
         <v>0</v>
       </c>
       <c r="D833" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -21860,7 +21860,7 @@
         <v>0</v>
       </c>
       <c r="D834" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835">
@@ -21874,7 +21874,7 @@
         <v>0</v>
       </c>
       <c r="D835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -21888,7 +21888,7 @@
         <v>0</v>
       </c>
       <c r="D836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837">
@@ -21902,7 +21902,7 @@
         <v>0</v>
       </c>
       <c r="D837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838">
@@ -21916,7 +21916,7 @@
         <v>0</v>
       </c>
       <c r="D838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -21930,7 +21930,7 @@
         <v>0</v>
       </c>
       <c r="D839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -21944,7 +21944,7 @@
         <v>0</v>
       </c>
       <c r="D840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="D841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -21972,7 +21972,7 @@
         <v>0</v>
       </c>
       <c r="D842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843">
@@ -21986,7 +21986,7 @@
         <v>0</v>
       </c>
       <c r="D843" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844">
@@ -22000,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="D844" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845">
@@ -22014,7 +22014,7 @@
         <v>0</v>
       </c>
       <c r="D845" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="846">
@@ -22028,7 +22028,7 @@
         <v>0</v>
       </c>
       <c r="D846" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="847">
@@ -22042,7 +22042,7 @@
         <v>0</v>
       </c>
       <c r="D847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -22056,7 +22056,7 @@
         <v>0</v>
       </c>
       <c r="D848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="849">
@@ -22070,7 +22070,7 @@
         <v>0</v>
       </c>
       <c r="D849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -22084,7 +22084,7 @@
         <v>0</v>
       </c>
       <c r="D850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="D851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="852">
@@ -22112,7 +22112,7 @@
         <v>0</v>
       </c>
       <c r="D852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="853">
@@ -22126,7 +22126,7 @@
         <v>0</v>
       </c>
       <c r="D853" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854">
@@ -22140,7 +22140,7 @@
         <v>0</v>
       </c>
       <c r="D854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855">
@@ -22154,7 +22154,7 @@
         <v>0</v>
       </c>
       <c r="D855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856">
@@ -22168,7 +22168,7 @@
         <v>0</v>
       </c>
       <c r="D856" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -22182,7 +22182,7 @@
         <v>0</v>
       </c>
       <c r="D857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -22196,7 +22196,7 @@
         <v>0</v>
       </c>
       <c r="D858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859">
@@ -22210,7 +22210,7 @@
         <v>0</v>
       </c>
       <c r="D859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860">
@@ -22224,7 +22224,7 @@
         <v>0</v>
       </c>
       <c r="D860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861">
@@ -22238,7 +22238,7 @@
         <v>0</v>
       </c>
       <c r="D861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862">
@@ -22252,7 +22252,7 @@
         <v>0</v>
       </c>
       <c r="D862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863">
@@ -22266,7 +22266,7 @@
         <v>0</v>
       </c>
       <c r="D863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864">
@@ -22280,7 +22280,7 @@
         <v>0</v>
       </c>
       <c r="D864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865">
@@ -22294,7 +22294,7 @@
         <v>0</v>
       </c>
       <c r="D865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866">
@@ -22308,7 +22308,7 @@
         <v>0</v>
       </c>
       <c r="D866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867">
@@ -22322,7 +22322,7 @@
         <v>0</v>
       </c>
       <c r="D867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868">
@@ -22336,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="D868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869">
@@ -22350,7 +22350,7 @@
         <v>0</v>
       </c>
       <c r="D869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870">
@@ -22364,7 +22364,7 @@
         <v>0</v>
       </c>
       <c r="D870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -22378,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="D871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872">
@@ -22392,7 +22392,7 @@
         <v>0</v>
       </c>
       <c r="D872" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873">
@@ -22406,7 +22406,7 @@
         <v>0</v>
       </c>
       <c r="D873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874">
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
       <c r="D874" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875">
@@ -22434,7 +22434,7 @@
         <v>0</v>
       </c>
       <c r="D875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876">
@@ -22448,7 +22448,7 @@
         <v>0</v>
       </c>
       <c r="D876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877">
@@ -22462,7 +22462,7 @@
         <v>0</v>
       </c>
       <c r="D877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -22476,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="D878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879">
@@ -22490,7 +22490,7 @@
         <v>0</v>
       </c>
       <c r="D879" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880">
@@ -22504,7 +22504,7 @@
         <v>0</v>
       </c>
       <c r="D880" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881">
@@ -22518,7 +22518,7 @@
         <v>0</v>
       </c>
       <c r="D881" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882">
@@ -22532,7 +22532,7 @@
         <v>0</v>
       </c>
       <c r="D882" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883">
@@ -22546,7 +22546,7 @@
         <v>0</v>
       </c>
       <c r="D883" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884">
@@ -22560,7 +22560,7 @@
         <v>0</v>
       </c>
       <c r="D884" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885">
@@ -22574,7 +22574,7 @@
         <v>0</v>
       </c>
       <c r="D885" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886">
@@ -22588,7 +22588,7 @@
         <v>0</v>
       </c>
       <c r="D886" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887">
@@ -22602,7 +22602,7 @@
         <v>0</v>
       </c>
       <c r="D887" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888">
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
       <c r="D888" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -22630,7 +22630,7 @@
         <v>0</v>
       </c>
       <c r="D889" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890">
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="D890" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891">
@@ -22658,7 +22658,7 @@
         <v>0</v>
       </c>
       <c r="D891" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892">
@@ -22672,7 +22672,7 @@
         <v>0</v>
       </c>
       <c r="D892" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893">
@@ -22686,7 +22686,7 @@
         <v>0</v>
       </c>
       <c r="D893" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894">
@@ -22700,7 +22700,7 @@
         <v>0</v>
       </c>
       <c r="D894" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895">
@@ -22714,7 +22714,7 @@
         <v>0</v>
       </c>
       <c r="D895" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -22728,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="D896" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897">
@@ -22742,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="D897" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="D898" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899">
@@ -22770,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="D899" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900">
@@ -22784,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="D900" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901">
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="D901" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902">
@@ -22812,7 +22812,7 @@
         <v>0</v>
       </c>
       <c r="D902" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903">
@@ -22826,7 +22826,7 @@
         <v>0</v>
       </c>
       <c r="D903" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904">
@@ -22840,7 +22840,7 @@
         <v>0</v>
       </c>
       <c r="D904" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905">
@@ -22854,7 +22854,7 @@
         <v>0</v>
       </c>
       <c r="D905" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906">
@@ -22868,7 +22868,7 @@
         <v>0</v>
       </c>
       <c r="D906" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907">
@@ -22882,7 +22882,7 @@
         <v>0</v>
       </c>
       <c r="D907" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908">
@@ -22896,7 +22896,7 @@
         <v>0</v>
       </c>
       <c r="D908" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909">
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="D909" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910">
@@ -22924,7 +22924,7 @@
         <v>0</v>
       </c>
       <c r="D910" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911">

--- a/code/notebooks/sortie_jalon2.xlsx
+++ b/code/notebooks/sortie_jalon2.xlsx
@@ -488,7 +488,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01:29</t>
+          <t>01:31</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -548,7 +548,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>00:55</t>
+          <t>00:52</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -578,7 +578,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01:38</t>
+          <t>01:32</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -608,7 +608,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>00:52</t>
+          <t>00:53</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -668,7 +668,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>01:39</t>
+          <t>01:38</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -938,7 +938,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>02:51</t>
+          <t>02:45</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -968,7 +968,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>02:39</t>
+          <t>02:38</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -998,7 +998,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>02:17</t>
+          <t>02:21</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>02:30</t>
+          <t>02:28</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>01:56</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>03:22</t>
+          <t>03:18</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>01:53</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>03:32</t>
+          <t>03:29</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1298,7 +1298,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>04:54</t>
+          <t>04:47</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>04:27</t>
+          <t>04:25</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>03:40</t>
+          <t>03:56</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>04:23</t>
+          <t>04:20</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>04:02</t>
+          <t>03:58</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1538,7 +1538,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>04:15</t>
+          <t>04:16</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>04:29</t>
+          <t>04:28</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1628,7 +1628,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>04:03</t>
+          <t>03:55</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>05:00</t>
+          <t>05:02</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>05:09</t>
+          <t>04:58</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>03:51</t>
+          <t>03:47</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>04:53</t>
+          <t>05:13</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>03:39</t>
+          <t>03:35</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>05:03</t>
+          <t>05:01</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>07:23</t>
+          <t>07:14</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>05:41</t>
+          <t>05:39</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>05:27</t>
+          <t>05:18</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>05:58</t>
+          <t>06:10</t>
         </is>
       </c>
       <c r="E56" t="n">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>05:51</t>
+          <t>05:40</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2168,7 +2168,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>06:11</t>
+          <t>06:12</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>06:31</t>
+          <t>06:50</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>05:04</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="E60" t="n">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>05:29</t>
+          <t>05:33</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -2288,7 +2288,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>06:15</t>
+          <t>06:11</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>06:43</t>
+          <t>06:51</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>05:49</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>05:27</t>
         </is>
       </c>
       <c r="E68" t="n">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>07:07</t>
+          <t>06:26</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>07:58</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:29</t>
         </is>
       </c>
       <c r="E72" t="n">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>07:42</t>
+          <t>07:34</t>
         </is>
       </c>
       <c r="E73" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>07:05</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:33</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>06:33</t>
+          <t>06:36</t>
         </is>
       </c>
       <c r="E76" t="n">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>07:51</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>07:52</t>
+          <t>07:45</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -2798,7 +2798,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>07:44</t>
+          <t>07:46</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>07:16</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:36</t>
         </is>
       </c>
       <c r="E81" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>07:50</t>
+          <t>07:43</t>
         </is>
       </c>
       <c r="E82" t="n">
@@ -2918,7 +2918,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>07:48</t>
+          <t>07:44</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>07:49</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>07:19</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -3008,7 +3008,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>07:28</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>07:55</t>
+          <t>07:56</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3068,7 +3068,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>08:08</t>
+          <t>08:14</t>
         </is>
       </c>
       <c r="E88" t="n">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>07:13</t>
+          <t>06:47</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3188,7 +3188,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>08:12</t>
+          <t>07:57</t>
         </is>
       </c>
       <c r="E92" t="n">
@@ -3218,7 +3218,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>07:34</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3248,7 +3248,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:13</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>09:43</t>
+          <t>09:40</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -3308,7 +3308,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>09:36</t>
+          <t>08:44</t>
         </is>
       </c>
       <c r="E96" t="n">
@@ -3338,7 +3338,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>09:32</t>
+          <t>09:25</t>
         </is>
       </c>
       <c r="E97" t="n">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>08:47</t>
+          <t>08:49</t>
         </is>
       </c>
       <c r="E99" t="n">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>09:26</t>
+          <t>09:29</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:41</t>
         </is>
       </c>
       <c r="E101" t="n">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>08:13</t>
+          <t>08:12</t>
         </is>
       </c>
       <c r="E102" t="n">
@@ -3518,7 +3518,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>08:42</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>09:34</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>09:40</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>08:39</t>
         </is>
       </c>
       <c r="E108" t="n">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>09:31</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="E109" t="n">
@@ -3728,7 +3728,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="E110" t="n">
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>09:29</t>
+          <t>09:31</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>02:01</t>
+          <t>02:02</t>
         </is>
       </c>
       <c r="E113" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>02:04</t>
+          <t>02:03</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -3968,7 +3968,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>02:02</t>
+          <t>02:04</t>
         </is>
       </c>
       <c r="E118" t="n">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>00:57</t>
+          <t>00:54</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>00:53</t>
+          <t>00:56</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -4208,7 +4208,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>01:58</t>
+          <t>01:59</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>00:54</t>
+          <t>00:55</t>
         </is>
       </c>
       <c r="E128" t="n">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>00:56</t>
+          <t>00:53</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4358,7 +4358,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>03:12</t>
+          <t>03:13</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>03:11</t>
+          <t>03:14</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>02:03</t>
+          <t>02:01</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>01:59</t>
+          <t>01:58</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -4478,7 +4478,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>03:40</t>
+          <t>03:36</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -4568,7 +4568,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>03:16</t>
+          <t>03:11</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>03:52</t>
+          <t>03:53</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -4658,7 +4658,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>03:23</t>
+          <t>03:19</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>02:52</t>
+          <t>02:46</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>03:33</t>
+          <t>03:30</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -4778,7 +4778,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>03:14</t>
+          <t>03:12</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>03:35</t>
+          <t>03:31</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -4838,7 +4838,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>03:13</t>
+          <t>03:16</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>05:02</t>
+          <t>05:03</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>05:01</t>
+          <t>05:04</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -4928,7 +4928,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>05:26</t>
+          <t>05:29</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:16</t>
         </is>
       </c>
       <c r="E151" t="n">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>04:47</t>
+          <t>04:42</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>04:54</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -5048,7 +5048,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>04:46</t>
+          <t>04:43</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -5078,7 +5078,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>03:41</t>
+          <t>03:39</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>04:55</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -5138,7 +5138,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>04:45</t>
+          <t>04:44</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>05:11</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>05:28</t>
+          <t>05:26</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:02</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -5288,7 +5288,7 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>04:56</t>
+          <t>04:48</t>
         </is>
       </c>
       <c r="E162" t="n">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>04:16</t>
+          <t>04:27</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -5348,7 +5348,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>05:29</t>
+          <t>05:28</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:29</t>
         </is>
       </c>
       <c r="E166" t="n">
@@ -5438,7 +5438,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>07:29</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -5468,7 +5468,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>05:25</t>
+          <t>05:30</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>05:13</t>
+          <t>05:00</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>07:08</t>
+          <t>06:28</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>06:53</t>
+          <t>06:52</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>05:43</t>
+          <t>05:50</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -5618,7 +5618,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>07:14</t>
+          <t>06:48</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -5648,7 +5648,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>05:42</t>
+          <t>05:27</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>05:52</t>
+          <t>05:41</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -5768,7 +5768,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>06:19</t>
+          <t>06:20</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>06:34</t>
+          <t>06:37</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -5828,7 +5828,7 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>05:53</t>
+          <t>05:42</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>06:54</t>
+          <t>07:06</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>07:44</t>
+          <t>07:41</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>07:17</t>
+          <t>07:21</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>08:13</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -6008,7 +6008,7 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>07:56</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -6038,7 +6038,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>08:25</t>
+          <t>08:17</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>08:11</t>
+          <t>08:31</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>07:45</t>
+          <t>07:47</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>07:53</t>
+          <t>07:48</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>07:59</t>
+          <t>08:02</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>07:41</t>
+          <t>07:20</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -6248,7 +6248,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>07:27</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>10:14</t>
+          <t>09:35</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -6308,7 +6308,7 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>09:42</t>
+          <t>09:59</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -6338,7 +6338,7 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>08:39</t>
+          <t>08:40</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -6368,7 +6368,7 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>09:41</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -6398,7 +6398,7 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>08:09</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>09:33</t>
+          <t>09:32</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -6458,7 +6458,7 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>09:44</t>
+          <t>09:41</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -6488,7 +6488,7 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>08:27</t>
+          <t>08:41</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>08:28</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -6548,7 +6548,7 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>09:52</t>
+          <t>09:58</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -6578,7 +6578,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>07:35</t>
+          <t>08:01</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -6608,7 +6608,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>08:26</t>
+          <t>08:18</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -6638,7 +6638,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>10:16</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>08:29</t>
+          <t>08:16</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>10:17</t>
+          <t>09:52</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>09:37</t>
+          <t>08:50</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -6788,7 +6788,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>09:35</t>
+          <t>09:34</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -6818,7 +6818,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>09:46</t>
+          <t>09:42</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -6848,7 +6848,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>07:43</t>
+          <t>07:42</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -6878,7 +6878,7 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>09:47</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>06:20</t>
+          <t>06:19</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -6938,7 +6938,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:33</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -6998,7 +6998,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>02:12</t>
+          <t>02:13</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -7118,7 +7118,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>01:52</t>
+          <t>01:54</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -7208,7 +7208,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>01:04</t>
+          <t>01:07</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>01:42</t>
+          <t>01:44</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -7358,7 +7358,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>01:51</t>
+          <t>01:53</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -7388,7 +7388,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>02:09</t>
+          <t>02:10</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>01:09</t>
+          <t>01:06</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -7478,7 +7478,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>01:07</t>
+          <t>01:04</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>03:23</t>
+          <t>03:28</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>02:10</t>
+          <t>02:09</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -7718,7 +7718,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>03:28</t>
+          <t>03:26</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>03:27</t>
+          <t>03:22</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -7778,7 +7778,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>02:51</t>
+          <t>02:56</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -7808,7 +7808,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>04:03</t>
+          <t>04:04</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -7868,7 +7868,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>03:03</t>
+          <t>02:57</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -7898,7 +7898,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>03:45</t>
+          <t>03:49</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>03:26</t>
+          <t>03:23</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -7988,7 +7988,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>03:46</t>
+          <t>03:45</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>03:24</t>
+          <t>03:27</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -8048,7 +8048,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>05:13</t>
+          <t>05:14</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>05:12</t>
+          <t>05:15</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>05:37</t>
+          <t>05:43</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>05:25</t>
+          <t>05:34</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>04:58</t>
+          <t>04:56</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -8198,7 +8198,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>05:05</t>
+          <t>05:39</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>04:57</t>
+          <t>04:54</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -8258,7 +8258,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>03:52</t>
+          <t>03:50</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -8288,7 +8288,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>05:06</t>
+          <t>05:25</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -8318,7 +8318,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>04:56</t>
+          <t>04:55</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -8348,7 +8348,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>05:22</t>
+          <t>05:10</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>05:39</t>
+          <t>05:37</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>05:23</t>
+          <t>05:13</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -8468,7 +8468,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>05:07</t>
+          <t>04:59</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -8498,7 +8498,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>04:27</t>
+          <t>04:38</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -8528,7 +8528,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>05:40</t>
+          <t>05:42</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>07:39</t>
+          <t>07:40</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>07:40</t>
+          <t>07:41</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -8648,7 +8648,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>05:36</t>
+          <t>05:41</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>05:24</t>
+          <t>05:11</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -8708,7 +8708,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>07:19</t>
+          <t>06:39</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -8738,7 +8738,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>07:04</t>
+          <t>07:03</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -8768,7 +8768,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>06:33</t>
+          <t>06:01</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>07:25</t>
+          <t>06:59</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>06:02</t>
+          <t>05:44</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -8858,7 +8858,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>06:03</t>
+          <t>06:17</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -8918,7 +8918,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>07:11</t>
+          <t>07:12</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -8948,7 +8948,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>06:35</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>06:47</t>
+          <t>06:48</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>06:04</t>
+          <t>06:03</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -9038,7 +9038,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>07:05</t>
+          <t>07:17</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -9068,7 +9068,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>07:55</t>
+          <t>07:52</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -9098,7 +9098,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>07:28</t>
+          <t>07:32</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>08:24</t>
+          <t>08:10</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -9188,7 +9188,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>08:07</t>
+          <t>08:09</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>08:36</t>
+          <t>08:35</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -9248,7 +9248,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>08:21</t>
+          <t>08:41</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -9278,7 +9278,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>08:22</t>
+          <t>08:42</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -9308,7 +9308,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>07:56</t>
+          <t>07:58</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -9338,7 +9338,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>08:04</t>
+          <t>07:59</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>08:10</t>
+          <t>08:13</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>07:52</t>
+          <t>07:31</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>07:38</t>
+          <t>07:26</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -9458,7 +9458,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>10:26</t>
+          <t>10:04</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>09:53</t>
+          <t>10:11</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -9518,7 +9518,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>08:50</t>
+          <t>08:51</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>09:56</t>
+          <t>10:17</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>08:20</t>
+          <t>08:26</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -9608,7 +9608,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>09:49</t>
+          <t>09:48</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>09:55</t>
+          <t>10:02</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>08:38</t>
+          <t>09:24</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -9698,7 +9698,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>08:43</t>
+          <t>09:39</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -9728,7 +9728,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>11:02</t>
+          <t>11:27</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>07:46</t>
+          <t>08:12</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>08:37</t>
+          <t>08:33</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -9818,7 +9818,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>11:27</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>08:40</t>
+          <t>08:27</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -9878,7 +9878,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:06</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -9908,7 +9908,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>10:27</t>
+          <t>09:38</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>11:13</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -9968,7 +9968,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>11:01</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -9998,7 +9998,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>09:57</t>
+          <t>10:24</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>07:57</t>
+          <t>07:53</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>09:58</t>
+          <t>09:43</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -10088,7 +10088,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>06:32</t>
+          <t>06:34</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>09:41</t>
+          <t>10:07</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -10937,7 +10937,7 @@
         <v>2</v>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" t="n">
         <v>2</v>
@@ -10951,7 +10951,7 @@
         <v>2</v>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
         <v>2</v>
@@ -10965,7 +10965,7 @@
         <v>2</v>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
         <v>2</v>
@@ -10976,13 +10976,13 @@
         <v>44781.57291666666</v>
       </c>
       <c r="B57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" t="n">
         <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -10990,13 +10990,13 @@
         <v>44781.58333333334</v>
       </c>
       <c r="B58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
         <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -11161,7 +11161,7 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -11175,7 +11175,7 @@
         <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -11455,7 +11455,7 @@
         <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>4</v>
@@ -11469,7 +11469,7 @@
         <v>4</v>
       </c>
       <c r="C92" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>4</v>
@@ -11480,13 +11480,13 @@
         <v>44781.94791666666</v>
       </c>
       <c r="B93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C93" t="n">
         <v>7</v>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94">
@@ -11494,13 +11494,13 @@
         <v>44781.95833333334</v>
       </c>
       <c r="B94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C94" t="n">
         <v>7</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -11522,13 +11522,13 @@
         <v>44781.97916666666</v>
       </c>
       <c r="B96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C96" t="n">
         <v>7</v>
       </c>
       <c r="D96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -11536,13 +11536,13 @@
         <v>44781.98958333334</v>
       </c>
       <c r="B97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C97" t="n">
         <v>7</v>
       </c>
       <c r="D97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -11550,13 +11550,13 @@
         <v>44782</v>
       </c>
       <c r="B98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C98" t="n">
         <v>7</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
@@ -11564,13 +11564,13 @@
         <v>44782.01041666666</v>
       </c>
       <c r="B99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C99" t="n">
         <v>7</v>
       </c>
       <c r="D99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -11578,13 +11578,13 @@
         <v>44782.02083333334</v>
       </c>
       <c r="B100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C100" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101">
@@ -11592,13 +11592,13 @@
         <v>44782.03125</v>
       </c>
       <c r="B101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C101" t="n">
         <v>9</v>
       </c>
       <c r="D101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
@@ -11606,13 +11606,13 @@
         <v>44782.04166666666</v>
       </c>
       <c r="B102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" t="n">
         <v>9</v>
       </c>
       <c r="D102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
@@ -11665,7 +11665,7 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="n">
         <v>1</v>
@@ -11679,7 +11679,7 @@
         <v>2</v>
       </c>
       <c r="C107" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" t="n">
         <v>2</v>
@@ -11791,7 +11791,7 @@
         <v>4</v>
       </c>
       <c r="C115" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D115" t="n">
         <v>4</v>
@@ -11805,7 +11805,7 @@
         <v>3</v>
       </c>
       <c r="C116" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" t="n">
         <v>3</v>
@@ -11816,13 +11816,13 @@
         <v>44782.19791666666</v>
       </c>
       <c r="B117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
@@ -11830,13 +11830,13 @@
         <v>44782.20833333334</v>
       </c>
       <c r="B118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C118" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119">
@@ -11844,13 +11844,13 @@
         <v>44782.21875</v>
       </c>
       <c r="B119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C119" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120">
@@ -11858,13 +11858,13 @@
         <v>44782.22916666666</v>
       </c>
       <c r="B120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C120" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D120" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121">
@@ -11872,13 +11872,13 @@
         <v>44782.23958333334</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C121" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122">
@@ -11886,13 +11886,13 @@
         <v>44782.25</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C122" t="n">
         <v>12</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -11900,13 +11900,13 @@
         <v>44782.26041666666</v>
       </c>
       <c r="B123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C123" t="n">
         <v>12</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -12085,7 +12085,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D136" t="n">
         <v>1</v>
@@ -12152,13 +12152,13 @@
         <v>44782.44791666666</v>
       </c>
       <c r="B141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C141" t="n">
         <v>2</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -12166,13 +12166,13 @@
         <v>44782.45833333334</v>
       </c>
       <c r="B142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C142" t="n">
         <v>2</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143">
@@ -12180,13 +12180,13 @@
         <v>44782.46875</v>
       </c>
       <c r="B143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C143" t="n">
         <v>2</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
@@ -12194,13 +12194,13 @@
         <v>44782.47916666666</v>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C144" t="n">
         <v>2</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145">
@@ -12281,7 +12281,7 @@
         <v>3</v>
       </c>
       <c r="C150" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D150" t="n">
         <v>3</v>
@@ -12295,7 +12295,7 @@
         <v>3</v>
       </c>
       <c r="C151" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D151" t="n">
         <v>3</v>
@@ -12306,13 +12306,13 @@
         <v>44782.5625</v>
       </c>
       <c r="B152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C152" t="n">
         <v>3</v>
       </c>
       <c r="D152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153">
@@ -12320,13 +12320,13 @@
         <v>44782.57291666666</v>
       </c>
       <c r="B153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C153" t="n">
         <v>3</v>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154">
@@ -12421,7 +12421,7 @@
         <v>2</v>
       </c>
       <c r="C160" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D160" t="n">
         <v>2</v>
@@ -12446,13 +12446,13 @@
         <v>44782.66666666666</v>
       </c>
       <c r="B162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C162" t="n">
         <v>5</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -12519,7 +12519,7 @@
         <v>2</v>
       </c>
       <c r="C167" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D167" t="n">
         <v>2</v>
@@ -12533,7 +12533,7 @@
         <v>2</v>
       </c>
       <c r="C168" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D168" t="n">
         <v>2</v>
@@ -12544,13 +12544,13 @@
         <v>44782.73958333334</v>
       </c>
       <c r="B169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -12558,13 +12558,13 @@
         <v>44782.75</v>
       </c>
       <c r="B170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C170" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -12572,13 +12572,13 @@
         <v>44782.76041666666</v>
       </c>
       <c r="B171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C171" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -12586,13 +12586,13 @@
         <v>44782.77083333334</v>
       </c>
       <c r="B172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -12600,13 +12600,13 @@
         <v>44782.78125</v>
       </c>
       <c r="B173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C173" t="n">
         <v>7</v>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -12614,13 +12614,13 @@
         <v>44782.79166666666</v>
       </c>
       <c r="B174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
         <v>7</v>
       </c>
       <c r="D174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -12631,7 +12631,7 @@
         <v>1</v>
       </c>
       <c r="C175" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -12645,7 +12645,7 @@
         <v>1</v>
       </c>
       <c r="C176" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D176" t="n">
         <v>1</v>
@@ -12659,7 +12659,7 @@
         <v>1</v>
       </c>
       <c r="C177" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -12673,7 +12673,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -12687,7 +12687,7 @@
         <v>1</v>
       </c>
       <c r="C179" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -12715,7 +12715,7 @@
         <v>1</v>
       </c>
       <c r="C181" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -12729,7 +12729,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D182" t="n">
         <v>1</v>
@@ -12743,7 +12743,7 @@
         <v>2</v>
       </c>
       <c r="C183" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D183" t="n">
         <v>2</v>
@@ -12757,7 +12757,7 @@
         <v>3</v>
       </c>
       <c r="C184" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D184" t="n">
         <v>3</v>
@@ -12771,7 +12771,7 @@
         <v>3</v>
       </c>
       <c r="C185" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D185" t="n">
         <v>3</v>
@@ -12785,7 +12785,7 @@
         <v>3</v>
       </c>
       <c r="C186" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D186" t="n">
         <v>3</v>
@@ -12981,7 +12981,7 @@
         <v>2</v>
       </c>
       <c r="C200" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D200" t="n">
         <v>2</v>
@@ -12995,7 +12995,7 @@
         <v>2</v>
       </c>
       <c r="C201" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D201" t="n">
         <v>2</v>
@@ -13006,13 +13006,13 @@
         <v>44783.08333333334</v>
       </c>
       <c r="B202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C202" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -13020,13 +13020,13 @@
         <v>44783.09375</v>
       </c>
       <c r="B203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C203" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -13034,13 +13034,13 @@
         <v>44783.10416666666</v>
       </c>
       <c r="B204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C204" t="n">
         <v>12</v>
       </c>
       <c r="D204" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -13048,13 +13048,13 @@
         <v>44783.11458333334</v>
       </c>
       <c r="B205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C205" t="n">
         <v>12</v>
       </c>
       <c r="D205" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -13065,7 +13065,7 @@
         <v>3</v>
       </c>
       <c r="C206" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D206" t="n">
         <v>3</v>
@@ -13079,7 +13079,7 @@
         <v>3</v>
       </c>
       <c r="C207" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D207" t="n">
         <v>3</v>
@@ -13135,7 +13135,7 @@
         <v>4</v>
       </c>
       <c r="C211" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D211" t="n">
         <v>4</v>
@@ -13149,7 +13149,7 @@
         <v>4</v>
       </c>
       <c r="C212" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D212" t="n">
         <v>4</v>
@@ -13160,13 +13160,13 @@
         <v>44783.19791666666</v>
       </c>
       <c r="B213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C213" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D213" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -13174,13 +13174,13 @@
         <v>44783.20833333334</v>
       </c>
       <c r="B214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C214" t="n">
         <v>6</v>
       </c>
       <c r="D214" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -13188,13 +13188,13 @@
         <v>44783.21875</v>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C215" t="n">
         <v>6</v>
       </c>
       <c r="D215" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -13219,7 +13219,7 @@
         <v>3</v>
       </c>
       <c r="C217" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D217" t="n">
         <v>3</v>
@@ -13233,7 +13233,7 @@
         <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D218" t="n">
         <v>3</v>
@@ -13244,13 +13244,13 @@
         <v>44783.26041666666</v>
       </c>
       <c r="B219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C219" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -13258,13 +13258,13 @@
         <v>44783.27083333334</v>
       </c>
       <c r="B220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C220" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D220" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -13272,13 +13272,13 @@
         <v>44783.28125</v>
       </c>
       <c r="B221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C221" t="n">
         <v>8</v>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222">
@@ -13286,13 +13286,13 @@
         <v>44783.29166666666</v>
       </c>
       <c r="B222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C222" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D222" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -13303,7 +13303,7 @@
         <v>2</v>
       </c>
       <c r="C223" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D223" t="n">
         <v>2</v>
@@ -13314,13 +13314,13 @@
         <v>44783.3125</v>
       </c>
       <c r="B224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225">
@@ -13328,13 +13328,13 @@
         <v>44783.32291666666</v>
       </c>
       <c r="B225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C225" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -13342,13 +13342,13 @@
         <v>44783.33333333334</v>
       </c>
       <c r="B226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C226" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D226" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -13356,13 +13356,13 @@
         <v>44783.34375</v>
       </c>
       <c r="B227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C227" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D227" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -13370,13 +13370,13 @@
         <v>44783.35416666666</v>
       </c>
       <c r="B228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C228" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D228" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -13384,13 +13384,13 @@
         <v>44783.36458333334</v>
       </c>
       <c r="B229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C229" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D229" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -13398,13 +13398,13 @@
         <v>44783.375</v>
       </c>
       <c r="B230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C230" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -13415,7 +13415,7 @@
         <v>3</v>
       </c>
       <c r="C231" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="n">
         <v>3</v>
@@ -13429,7 +13429,7 @@
         <v>3</v>
       </c>
       <c r="C232" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="n">
         <v>3</v>
@@ -13443,7 +13443,7 @@
         <v>3</v>
       </c>
       <c r="C233" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D233" t="n">
         <v>3</v>
@@ -13457,7 +13457,7 @@
         <v>3</v>
       </c>
       <c r="C234" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D234" t="n">
         <v>3</v>
@@ -13468,13 +13468,13 @@
         <v>44783.42708333334</v>
       </c>
       <c r="B235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C235" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D235" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -13482,13 +13482,13 @@
         <v>44783.4375</v>
       </c>
       <c r="B236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C236" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D236" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="237">
@@ -13496,13 +13496,13 @@
         <v>44783.44791666666</v>
       </c>
       <c r="B237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C237" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D237" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
@@ -13510,13 +13510,13 @@
         <v>44783.45833333334</v>
       </c>
       <c r="B238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C238" t="n">
         <v>7</v>
       </c>
       <c r="D238" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239">
@@ -13538,13 +13538,13 @@
         <v>44783.47916666666</v>
       </c>
       <c r="B240" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C240" t="n">
         <v>7</v>
       </c>
       <c r="D240" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -13552,13 +13552,13 @@
         <v>44783.48958333334</v>
       </c>
       <c r="B241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C241" t="n">
         <v>7</v>
       </c>
       <c r="D241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242">
@@ -13566,13 +13566,13 @@
         <v>44783.5</v>
       </c>
       <c r="B242" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C242" t="n">
         <v>7</v>
       </c>
       <c r="D242" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -13580,13 +13580,13 @@
         <v>44783.51041666666</v>
       </c>
       <c r="B243" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C243" t="n">
         <v>7</v>
       </c>
       <c r="D243" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -13594,13 +13594,13 @@
         <v>44783.52083333334</v>
       </c>
       <c r="B244" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C244" t="n">
         <v>7</v>
       </c>
       <c r="D244" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245">
@@ -13608,13 +13608,13 @@
         <v>44783.53125</v>
       </c>
       <c r="B245" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C245" t="n">
         <v>7</v>
       </c>
       <c r="D245" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="246">
@@ -13622,13 +13622,13 @@
         <v>44783.54166666666</v>
       </c>
       <c r="B246" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="n">
         <v>7</v>
       </c>
       <c r="D246" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247">
@@ -13639,7 +13639,7 @@
         <v>5</v>
       </c>
       <c r="C247" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D247" t="n">
         <v>5</v>
@@ -13779,7 +13779,7 @@
         <v>4</v>
       </c>
       <c r="C257" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D257" t="n">
         <v>4</v>
@@ -13804,13 +13804,13 @@
         <v>44783.67708333334</v>
       </c>
       <c r="B259" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C259" t="n">
         <v>6</v>
       </c>
       <c r="D259" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260">
@@ -13874,13 +13874,13 @@
         <v>44783.72916666666</v>
       </c>
       <c r="B264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C264" t="n">
         <v>8</v>
       </c>
       <c r="D264" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -13888,13 +13888,13 @@
         <v>44783.73958333334</v>
       </c>
       <c r="B265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C265" t="n">
         <v>8</v>
       </c>
       <c r="D265" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -13902,13 +13902,13 @@
         <v>44783.75</v>
       </c>
       <c r="B266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C266" t="n">
         <v>8</v>
       </c>
       <c r="D266" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
@@ -13919,7 +13919,7 @@
         <v>2</v>
       </c>
       <c r="C267" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D267" t="n">
         <v>2</v>
@@ -13933,7 +13933,7 @@
         <v>2</v>
       </c>
       <c r="C268" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D268" t="n">
         <v>2</v>
@@ -13944,13 +13944,13 @@
         <v>44783.78125</v>
       </c>
       <c r="B269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C269" t="n">
         <v>9</v>
       </c>
       <c r="D269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -13958,13 +13958,13 @@
         <v>44783.79166666666</v>
       </c>
       <c r="B270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C270" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -13975,7 +13975,7 @@
         <v>1</v>
       </c>
       <c r="C271" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D271" t="n">
         <v>1</v>
@@ -13986,13 +13986,13 @@
         <v>44783.8125</v>
       </c>
       <c r="B272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -14003,7 +14003,7 @@
         <v>0</v>
       </c>
       <c r="C273" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>0</v>
       </c>
       <c r="C274" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D274" t="n">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D275" t="n">
         <v>0</v>
@@ -14045,7 +14045,7 @@
         <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D276" t="n">
         <v>1</v>
@@ -14059,7 +14059,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D277" t="n">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>2</v>
       </c>
       <c r="C278" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D278" t="n">
         <v>2</v>
@@ -14087,7 +14087,7 @@
         <v>3</v>
       </c>
       <c r="C279" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D279" t="n">
         <v>3</v>
@@ -14101,7 +14101,7 @@
         <v>4</v>
       </c>
       <c r="C280" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D280" t="n">
         <v>4</v>
@@ -14115,7 +14115,7 @@
         <v>4</v>
       </c>
       <c r="C281" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D281" t="n">
         <v>4</v>
@@ -14227,7 +14227,7 @@
         <v>3</v>
       </c>
       <c r="C289" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D289" t="n">
         <v>3</v>
@@ -14241,7 +14241,7 @@
         <v>4</v>
       </c>
       <c r="C290" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D290" t="n">
         <v>4</v>
@@ -14252,13 +14252,13 @@
         <v>44784.01041666666</v>
       </c>
       <c r="B291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C291" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D291" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -14266,13 +14266,13 @@
         <v>44784.02083333334</v>
       </c>
       <c r="B292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C292" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D292" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -14280,13 +14280,13 @@
         <v>44784.03125</v>
       </c>
       <c r="B293" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C293" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D293" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -14294,13 +14294,13 @@
         <v>44784.04166666666</v>
       </c>
       <c r="B294" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C294" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D294" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -14308,13 +14308,13 @@
         <v>44784.05208333334</v>
       </c>
       <c r="B295" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C295" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D295" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -14322,13 +14322,13 @@
         <v>44784.0625</v>
       </c>
       <c r="B296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C296" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D296" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -14339,7 +14339,7 @@
         <v>3</v>
       </c>
       <c r="C297" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D297" t="n">
         <v>3</v>
@@ -14350,13 +14350,13 @@
         <v>44784.08333333334</v>
       </c>
       <c r="B298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C298" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D298" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -14364,13 +14364,13 @@
         <v>44784.09375</v>
       </c>
       <c r="B299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C299" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D299" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300">
@@ -14378,13 +14378,13 @@
         <v>44784.10416666666</v>
       </c>
       <c r="B300" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C300" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D300" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301">
@@ -14392,13 +14392,13 @@
         <v>44784.11458333334</v>
       </c>
       <c r="B301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C301" t="n">
         <v>11</v>
       </c>
       <c r="D301" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302">
@@ -14409,7 +14409,7 @@
         <v>6</v>
       </c>
       <c r="C302" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D302" t="n">
         <v>6</v>
@@ -14423,7 +14423,7 @@
         <v>6</v>
       </c>
       <c r="C303" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D303" t="n">
         <v>6</v>
@@ -14434,13 +14434,13 @@
         <v>44784.14583333334</v>
       </c>
       <c r="B304" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C304" t="n">
         <v>13</v>
       </c>
       <c r="D304" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="305">
@@ -14462,13 +14462,13 @@
         <v>44784.16666666666</v>
       </c>
       <c r="B306" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C306" t="n">
         <v>13</v>
       </c>
       <c r="D306" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307">
@@ -14490,13 +14490,13 @@
         <v>44784.1875</v>
       </c>
       <c r="B308" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C308" t="n">
         <v>13</v>
       </c>
       <c r="D308" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="309">
@@ -14504,13 +14504,13 @@
         <v>44784.19791666666</v>
       </c>
       <c r="B309" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C309" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D309" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310">
@@ -14518,13 +14518,13 @@
         <v>44784.20833333334</v>
       </c>
       <c r="B310" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C310" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D310" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311">
@@ -14532,13 +14532,13 @@
         <v>44784.21875</v>
       </c>
       <c r="B311" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C311" t="n">
         <v>13</v>
       </c>
       <c r="D311" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312">
@@ -14546,13 +14546,13 @@
         <v>44784.22916666666</v>
       </c>
       <c r="B312" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C312" t="n">
         <v>13</v>
       </c>
       <c r="D312" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313">
@@ -14560,13 +14560,13 @@
         <v>44784.23958333334</v>
       </c>
       <c r="B313" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C313" t="n">
         <v>13</v>
       </c>
       <c r="D313" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314">
@@ -14574,13 +14574,13 @@
         <v>44784.25</v>
       </c>
       <c r="B314" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C314" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D314" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="315">
@@ -14588,13 +14588,13 @@
         <v>44784.26041666666</v>
       </c>
       <c r="B315" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C315" t="n">
         <v>13</v>
       </c>
       <c r="D315" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="316">
@@ -14602,13 +14602,13 @@
         <v>44784.27083333334</v>
       </c>
       <c r="B316" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C316" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D316" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317">
@@ -14616,13 +14616,13 @@
         <v>44784.28125</v>
       </c>
       <c r="B317" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C317" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D317" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="318">
@@ -14647,7 +14647,7 @@
         <v>3</v>
       </c>
       <c r="C319" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D319" t="n">
         <v>3</v>
@@ -14686,13 +14686,13 @@
         <v>44784.33333333334</v>
       </c>
       <c r="B322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C322" t="n">
         <v>11</v>
       </c>
       <c r="D322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -14700,13 +14700,13 @@
         <v>44784.34375</v>
       </c>
       <c r="B323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C323" t="n">
         <v>11</v>
       </c>
       <c r="D323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324">
@@ -14714,13 +14714,13 @@
         <v>44784.35416666666</v>
       </c>
       <c r="B324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C324" t="n">
         <v>11</v>
       </c>
       <c r="D324" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325">
@@ -14728,13 +14728,13 @@
         <v>44784.36458333334</v>
       </c>
       <c r="B325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" t="n">
         <v>11</v>
       </c>
       <c r="D325" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326">
@@ -14742,13 +14742,13 @@
         <v>44784.375</v>
       </c>
       <c r="B326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C326" t="n">
         <v>11</v>
       </c>
       <c r="D326" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -14756,13 +14756,13 @@
         <v>44784.38541666666</v>
       </c>
       <c r="B327" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C327" t="n">
         <v>13</v>
       </c>
       <c r="D327" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -14773,7 +14773,7 @@
         <v>3</v>
       </c>
       <c r="C328" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D328" t="n">
         <v>3</v>
@@ -14787,7 +14787,7 @@
         <v>2</v>
       </c>
       <c r="C329" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D329" t="n">
         <v>2</v>
@@ -14801,7 +14801,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D330" t="n">
         <v>2</v>
@@ -14815,7 +14815,7 @@
         <v>1</v>
       </c>
       <c r="C331" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D331" t="n">
         <v>1</v>
@@ -14829,7 +14829,7 @@
         <v>2</v>
       </c>
       <c r="C332" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D332" t="n">
         <v>2</v>
@@ -14840,13 +14840,13 @@
         <v>44784.44791666666</v>
       </c>
       <c r="B333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C333" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D333" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -14854,13 +14854,13 @@
         <v>44784.45833333334</v>
       </c>
       <c r="B334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C334" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D334" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -14868,13 +14868,13 @@
         <v>44784.46875</v>
       </c>
       <c r="B335" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C335" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D335" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="336">
@@ -14882,13 +14882,13 @@
         <v>44784.47916666666</v>
       </c>
       <c r="B336" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C336" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D336" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337">
@@ -14899,7 +14899,7 @@
         <v>4</v>
       </c>
       <c r="C337" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D337" t="n">
         <v>4</v>
@@ -14913,7 +14913,7 @@
         <v>4</v>
       </c>
       <c r="C338" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D338" t="n">
         <v>4</v>
@@ -14927,7 +14927,7 @@
         <v>4</v>
       </c>
       <c r="C339" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D339" t="n">
         <v>4</v>
@@ -14941,7 +14941,7 @@
         <v>4</v>
       </c>
       <c r="C340" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D340" t="n">
         <v>4</v>
@@ -14955,7 +14955,7 @@
         <v>4</v>
       </c>
       <c r="C341" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D341" t="n">
         <v>4</v>
@@ -14969,7 +14969,7 @@
         <v>4</v>
       </c>
       <c r="C342" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D342" t="n">
         <v>4</v>
@@ -14980,13 +14980,13 @@
         <v>44784.55208333334</v>
       </c>
       <c r="B343" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C343" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D343" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -14994,13 +14994,13 @@
         <v>44784.5625</v>
       </c>
       <c r="B344" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C344" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D344" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345">
@@ -15008,13 +15008,13 @@
         <v>44784.57291666666</v>
       </c>
       <c r="B345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C345" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D345" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346">
@@ -15025,7 +15025,7 @@
         <v>2</v>
       </c>
       <c r="C346" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D346" t="n">
         <v>2</v>
@@ -15053,7 +15053,7 @@
         <v>2</v>
       </c>
       <c r="C348" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D348" t="n">
         <v>2</v>
@@ -15067,7 +15067,7 @@
         <v>2</v>
       </c>
       <c r="C349" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D349" t="n">
         <v>2</v>
@@ -15081,7 +15081,7 @@
         <v>2</v>
       </c>
       <c r="C350" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D350" t="n">
         <v>2</v>
@@ -15120,13 +15120,13 @@
         <v>44784.65625</v>
       </c>
       <c r="B353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C353" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -15134,13 +15134,13 @@
         <v>44784.66666666666</v>
       </c>
       <c r="B354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C354" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D354" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
@@ -15151,7 +15151,7 @@
         <v>2</v>
       </c>
       <c r="C355" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D355" t="n">
         <v>2</v>
@@ -15165,7 +15165,7 @@
         <v>3</v>
       </c>
       <c r="C356" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D356" t="n">
         <v>3</v>
@@ -15179,7 +15179,7 @@
         <v>3</v>
       </c>
       <c r="C357" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D357" t="n">
         <v>3</v>
@@ -15193,7 +15193,7 @@
         <v>3</v>
       </c>
       <c r="C358" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D358" t="n">
         <v>3</v>
@@ -15207,7 +15207,7 @@
         <v>3</v>
       </c>
       <c r="C359" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D359" t="n">
         <v>3</v>
@@ -15221,7 +15221,7 @@
         <v>2</v>
       </c>
       <c r="C360" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D360" t="n">
         <v>2</v>
@@ -15235,7 +15235,7 @@
         <v>3</v>
       </c>
       <c r="C361" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D361" t="n">
         <v>3</v>
@@ -15246,13 +15246,13 @@
         <v>44784.75</v>
       </c>
       <c r="B362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C362" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -15260,13 +15260,13 @@
         <v>44784.76041666666</v>
       </c>
       <c r="B363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C363" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -15274,13 +15274,13 @@
         <v>44784.77083333334</v>
       </c>
       <c r="B364" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C364" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D364" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -15288,13 +15288,13 @@
         <v>44784.78125</v>
       </c>
       <c r="B365" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C365" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D365" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -15302,13 +15302,13 @@
         <v>44784.79166666666</v>
       </c>
       <c r="B366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C366" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D366" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -15316,13 +15316,13 @@
         <v>44784.80208333334</v>
       </c>
       <c r="B367" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C367" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D367" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -15330,13 +15330,13 @@
         <v>44784.8125</v>
       </c>
       <c r="B368" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C368" t="n">
         <v>6</v>
       </c>
       <c r="D368" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -15344,13 +15344,13 @@
         <v>44784.82291666666</v>
       </c>
       <c r="B369" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C369" t="n">
         <v>6</v>
       </c>
       <c r="D369" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370">
@@ -15358,13 +15358,13 @@
         <v>44784.83333333334</v>
       </c>
       <c r="B370" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C370" t="n">
         <v>6</v>
       </c>
       <c r="D370" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371">
@@ -15372,13 +15372,13 @@
         <v>44784.84375</v>
       </c>
       <c r="B371" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C371" t="n">
         <v>6</v>
       </c>
       <c r="D371" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="372">
@@ -15386,13 +15386,13 @@
         <v>44784.85416666666</v>
       </c>
       <c r="B372" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C372" t="n">
         <v>6</v>
       </c>
       <c r="D372" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373">
@@ -15400,13 +15400,13 @@
         <v>44784.86458333334</v>
       </c>
       <c r="B373" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C373" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D373" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374">
@@ -15442,13 +15442,13 @@
         <v>44784.89583333334</v>
       </c>
       <c r="B376" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C376" t="n">
         <v>7</v>
       </c>
       <c r="D376" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377">
@@ -15456,13 +15456,13 @@
         <v>44784.90625</v>
       </c>
       <c r="B377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C377" t="n">
         <v>7</v>
       </c>
       <c r="D377" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="378">
@@ -15470,13 +15470,13 @@
         <v>44784.91666666666</v>
       </c>
       <c r="B378" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C378" t="n">
         <v>7</v>
       </c>
       <c r="D378" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379">
@@ -15515,7 +15515,7 @@
         <v>4</v>
       </c>
       <c r="C381" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D381" t="n">
         <v>4</v>
@@ -15529,7 +15529,7 @@
         <v>3</v>
       </c>
       <c r="C382" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D382" t="n">
         <v>3</v>
@@ -15543,7 +15543,7 @@
         <v>3</v>
       </c>
       <c r="C383" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D383" t="n">
         <v>3</v>
@@ -15557,7 +15557,7 @@
         <v>4</v>
       </c>
       <c r="C384" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D384" t="n">
         <v>4</v>
@@ -15571,7 +15571,7 @@
         <v>4</v>
       </c>
       <c r="C385" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D385" t="n">
         <v>4</v>
@@ -15585,7 +15585,7 @@
         <v>5</v>
       </c>
       <c r="C386" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D386" t="n">
         <v>5</v>
@@ -15599,7 +15599,7 @@
         <v>5</v>
       </c>
       <c r="C387" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D387" t="n">
         <v>5</v>
@@ -15613,7 +15613,7 @@
         <v>5</v>
       </c>
       <c r="C388" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D388" t="n">
         <v>5</v>
@@ -15627,7 +15627,7 @@
         <v>5</v>
       </c>
       <c r="C389" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D389" t="n">
         <v>5</v>
@@ -15638,13 +15638,13 @@
         <v>44785.04166666666</v>
       </c>
       <c r="B390" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C390" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D390" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391">
@@ -15652,13 +15652,13 @@
         <v>44785.05208333334</v>
       </c>
       <c r="B391" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C391" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D391" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="392">
@@ -15666,13 +15666,13 @@
         <v>44785.0625</v>
       </c>
       <c r="B392" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C392" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D392" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393">
@@ -15680,13 +15680,13 @@
         <v>44785.07291666666</v>
       </c>
       <c r="B393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C393" t="n">
         <v>13</v>
       </c>
       <c r="D393" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="394">
@@ -15694,13 +15694,13 @@
         <v>44785.08333333334</v>
       </c>
       <c r="B394" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C394" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D394" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395">
@@ -15725,7 +15725,7 @@
         <v>5</v>
       </c>
       <c r="C396" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D396" t="n">
         <v>5</v>
@@ -15736,13 +15736,13 @@
         <v>44785.11458333334</v>
       </c>
       <c r="B397" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C397" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D397" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="398">
@@ -15750,13 +15750,13 @@
         <v>44785.125</v>
       </c>
       <c r="B398" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C398" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D398" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="399">
@@ -15764,13 +15764,13 @@
         <v>44785.13541666666</v>
       </c>
       <c r="B399" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C399" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D399" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="400">
@@ -15781,7 +15781,7 @@
         <v>5</v>
       </c>
       <c r="C400" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D400" t="n">
         <v>5</v>
@@ -15795,7 +15795,7 @@
         <v>4</v>
       </c>
       <c r="C401" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D401" t="n">
         <v>4</v>
@@ -15809,7 +15809,7 @@
         <v>4</v>
       </c>
       <c r="C402" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D402" t="n">
         <v>4</v>
@@ -15851,7 +15851,7 @@
         <v>4</v>
       </c>
       <c r="C405" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D405" t="n">
         <v>4</v>
@@ -15865,7 +15865,7 @@
         <v>4</v>
       </c>
       <c r="C406" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D406" t="n">
         <v>4</v>
@@ -15876,13 +15876,13 @@
         <v>44785.21875</v>
       </c>
       <c r="B407" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C407" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D407" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408">
@@ -15890,13 +15890,13 @@
         <v>44785.22916666666</v>
       </c>
       <c r="B408" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C408" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D408" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="409">
@@ -15904,13 +15904,13 @@
         <v>44785.23958333334</v>
       </c>
       <c r="B409" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C409" t="n">
         <v>13</v>
       </c>
       <c r="D409" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="410">
@@ -15918,13 +15918,13 @@
         <v>44785.25</v>
       </c>
       <c r="B410" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C410" t="n">
         <v>13</v>
       </c>
       <c r="D410" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="411">
@@ -15935,7 +15935,7 @@
         <v>4</v>
       </c>
       <c r="C411" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D411" t="n">
         <v>4</v>
@@ -15949,7 +15949,7 @@
         <v>4</v>
       </c>
       <c r="C412" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D412" t="n">
         <v>4</v>
@@ -15963,7 +15963,7 @@
         <v>4</v>
       </c>
       <c r="C413" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D413" t="n">
         <v>4</v>
@@ -15974,13 +15974,13 @@
         <v>44785.29166666666</v>
       </c>
       <c r="B414" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C414" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D414" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -15988,13 +15988,13 @@
         <v>44785.30208333334</v>
       </c>
       <c r="B415" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C415" t="n">
         <v>13</v>
       </c>
       <c r="D415" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -16002,13 +16002,13 @@
         <v>44785.3125</v>
       </c>
       <c r="B416" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C416" t="n">
         <v>13</v>
       </c>
       <c r="D416" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -16016,13 +16016,13 @@
         <v>44785.32291666666</v>
       </c>
       <c r="B417" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C417" t="n">
         <v>13</v>
       </c>
       <c r="D417" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="418">
@@ -16030,13 +16030,13 @@
         <v>44785.33333333334</v>
       </c>
       <c r="B418" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C418" t="n">
         <v>13</v>
       </c>
       <c r="D418" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419">
@@ -16044,13 +16044,13 @@
         <v>44785.34375</v>
       </c>
       <c r="B419" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C419" t="n">
         <v>13</v>
       </c>
       <c r="D419" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420">
@@ -16058,13 +16058,13 @@
         <v>44785.35416666666</v>
       </c>
       <c r="B420" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C420" t="n">
         <v>13</v>
       </c>
       <c r="D420" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421">
@@ -16072,13 +16072,13 @@
         <v>44785.36458333334</v>
       </c>
       <c r="B421" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C421" t="n">
         <v>13</v>
       </c>
       <c r="D421" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422">
@@ -16086,13 +16086,13 @@
         <v>44785.375</v>
       </c>
       <c r="B422" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C422" t="n">
         <v>13</v>
       </c>
       <c r="D422" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="423">
@@ -16100,13 +16100,13 @@
         <v>44785.38541666666</v>
       </c>
       <c r="B423" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C423" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D423" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="424">
@@ -16114,13 +16114,13 @@
         <v>44785.39583333334</v>
       </c>
       <c r="B424" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C424" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D424" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="425">
@@ -16128,13 +16128,13 @@
         <v>44785.40625</v>
       </c>
       <c r="B425" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C425" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D425" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426">
@@ -16142,13 +16142,13 @@
         <v>44785.41666666666</v>
       </c>
       <c r="B426" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C426" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D426" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="427">
@@ -16156,13 +16156,13 @@
         <v>44785.42708333334</v>
       </c>
       <c r="B427" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C427" t="n">
         <v>13</v>
       </c>
       <c r="D427" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428">
@@ -16170,13 +16170,13 @@
         <v>44785.4375</v>
       </c>
       <c r="B428" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C428" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D428" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="429">
@@ -16184,13 +16184,13 @@
         <v>44785.44791666666</v>
       </c>
       <c r="B429" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C429" t="n">
         <v>13</v>
       </c>
       <c r="D429" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="430">
@@ -16198,13 +16198,13 @@
         <v>44785.45833333334</v>
       </c>
       <c r="B430" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C430" t="n">
         <v>13</v>
       </c>
       <c r="D430" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431">
@@ -16212,13 +16212,13 @@
         <v>44785.46875</v>
       </c>
       <c r="B431" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C431" t="n">
         <v>13</v>
       </c>
       <c r="D431" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="432">
@@ -16226,13 +16226,13 @@
         <v>44785.47916666666</v>
       </c>
       <c r="B432" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C432" t="n">
         <v>13</v>
       </c>
       <c r="D432" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433">
@@ -16240,13 +16240,13 @@
         <v>44785.48958333334</v>
       </c>
       <c r="B433" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C433" t="n">
         <v>13</v>
       </c>
       <c r="D433" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="434">
@@ -16254,13 +16254,13 @@
         <v>44785.5</v>
       </c>
       <c r="B434" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C434" t="n">
         <v>13</v>
       </c>
       <c r="D434" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="435">
@@ -16268,13 +16268,13 @@
         <v>44785.51041666666</v>
       </c>
       <c r="B435" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C435" t="n">
         <v>13</v>
       </c>
       <c r="D435" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436">
@@ -16282,13 +16282,13 @@
         <v>44785.52083333334</v>
       </c>
       <c r="B436" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C436" t="n">
         <v>13</v>
       </c>
       <c r="D436" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="437">
@@ -16310,13 +16310,13 @@
         <v>44785.54166666666</v>
       </c>
       <c r="B438" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C438" t="n">
         <v>13</v>
       </c>
       <c r="D438" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439">
@@ -16324,13 +16324,13 @@
         <v>44785.55208333334</v>
       </c>
       <c r="B439" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C439" t="n">
         <v>13</v>
       </c>
       <c r="D439" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440">
@@ -16380,13 +16380,13 @@
         <v>44785.59375</v>
       </c>
       <c r="B443" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C443" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D443" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444">
@@ -16394,13 +16394,13 @@
         <v>44785.60416666666</v>
       </c>
       <c r="B444" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C444" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D444" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="445">
@@ -16408,13 +16408,13 @@
         <v>44785.61458333334</v>
       </c>
       <c r="B445" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C445" t="n">
         <v>13</v>
       </c>
       <c r="D445" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="446">
@@ -16422,13 +16422,13 @@
         <v>44785.625</v>
       </c>
       <c r="B446" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C446" t="n">
         <v>13</v>
       </c>
       <c r="D446" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447">
@@ -16436,13 +16436,13 @@
         <v>44785.63541666666</v>
       </c>
       <c r="B447" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C447" t="n">
         <v>13</v>
       </c>
       <c r="D447" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="448">
@@ -16450,13 +16450,13 @@
         <v>44785.64583333334</v>
       </c>
       <c r="B448" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C448" t="n">
         <v>13</v>
       </c>
       <c r="D448" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="449">
@@ -16464,13 +16464,13 @@
         <v>44785.65625</v>
       </c>
       <c r="B449" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C449" t="n">
         <v>13</v>
       </c>
       <c r="D449" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="450">
@@ -16478,13 +16478,13 @@
         <v>44785.66666666666</v>
       </c>
       <c r="B450" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C450" t="n">
         <v>13</v>
       </c>
       <c r="D450" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="451">
@@ -16506,13 +16506,13 @@
         <v>44785.6875</v>
       </c>
       <c r="B452" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C452" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D452" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453">
@@ -16520,13 +16520,13 @@
         <v>44785.69791666666</v>
       </c>
       <c r="B453" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C453" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D453" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="454">
@@ -16534,13 +16534,13 @@
         <v>44785.70833333334</v>
       </c>
       <c r="B454" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C454" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D454" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="455">
@@ -16548,13 +16548,13 @@
         <v>44785.71875</v>
       </c>
       <c r="B455" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C455" t="n">
         <v>12</v>
       </c>
       <c r="D455" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="456">
@@ -16562,13 +16562,13 @@
         <v>44785.72916666666</v>
       </c>
       <c r="B456" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C456" t="n">
         <v>13</v>
       </c>
       <c r="D456" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457">
@@ -16576,13 +16576,13 @@
         <v>44785.73958333334</v>
       </c>
       <c r="B457" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C457" t="n">
         <v>13</v>
       </c>
       <c r="D457" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="458">
@@ -16590,13 +16590,13 @@
         <v>44785.75</v>
       </c>
       <c r="B458" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C458" t="n">
         <v>13</v>
       </c>
       <c r="D458" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="459">
@@ -16604,13 +16604,13 @@
         <v>44785.76041666666</v>
       </c>
       <c r="B459" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C459" t="n">
         <v>13</v>
       </c>
       <c r="D459" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="460">
@@ -16618,13 +16618,13 @@
         <v>44785.77083333334</v>
       </c>
       <c r="B460" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C460" t="n">
         <v>13</v>
       </c>
       <c r="D460" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="461">
@@ -16632,13 +16632,13 @@
         <v>44785.78125</v>
       </c>
       <c r="B461" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C461" t="n">
         <v>13</v>
       </c>
       <c r="D461" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="462">
@@ -16646,13 +16646,13 @@
         <v>44785.79166666666</v>
       </c>
       <c r="B462" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C462" t="n">
         <v>13</v>
       </c>
       <c r="D462" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="463">
@@ -16660,13 +16660,13 @@
         <v>44785.80208333334</v>
       </c>
       <c r="B463" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C463" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D463" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464">
@@ -16674,13 +16674,13 @@
         <v>44785.8125</v>
       </c>
       <c r="B464" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C464" t="n">
         <v>13</v>
       </c>
       <c r="D464" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="465">
@@ -16688,13 +16688,13 @@
         <v>44785.82291666666</v>
       </c>
       <c r="B465" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C465" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D465" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="466">
@@ -16702,13 +16702,13 @@
         <v>44785.83333333334</v>
       </c>
       <c r="B466" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C466" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D466" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="467">
@@ -16716,13 +16716,13 @@
         <v>44785.84375</v>
       </c>
       <c r="B467" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C467" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D467" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468">
@@ -16730,13 +16730,13 @@
         <v>44785.85416666666</v>
       </c>
       <c r="B468" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C468" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D468" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469">
@@ -16744,13 +16744,13 @@
         <v>44785.86458333334</v>
       </c>
       <c r="B469" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C469" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D469" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470">
@@ -16758,13 +16758,13 @@
         <v>44785.875</v>
       </c>
       <c r="B470" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C470" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D470" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="471">
@@ -16772,13 +16772,13 @@
         <v>44785.88541666666</v>
       </c>
       <c r="B471" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C471" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D471" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472">
@@ -16786,13 +16786,13 @@
         <v>44785.89583333334</v>
       </c>
       <c r="B472" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C472" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D472" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="473">
@@ -16800,13 +16800,13 @@
         <v>44785.90625</v>
       </c>
       <c r="B473" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C473" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D473" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="474">
@@ -16814,13 +16814,13 @@
         <v>44785.91666666666</v>
       </c>
       <c r="B474" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C474" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D474" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="475">
@@ -16831,7 +16831,7 @@
         <v>7</v>
       </c>
       <c r="C475" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D475" t="n">
         <v>7</v>
@@ -16842,13 +16842,13 @@
         <v>44785.9375</v>
       </c>
       <c r="B476" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C476" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D476" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="477">
@@ -16856,13 +16856,13 @@
         <v>44785.94791666666</v>
       </c>
       <c r="B477" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C477" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D477" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="478">
@@ -16870,13 +16870,13 @@
         <v>44785.95833333334</v>
       </c>
       <c r="B478" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C478" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D478" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="479">
@@ -16884,13 +16884,13 @@
         <v>44785.96875</v>
       </c>
       <c r="B479" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C479" t="n">
         <v>12</v>
       </c>
       <c r="D479" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="480">
@@ -16898,13 +16898,13 @@
         <v>44785.97916666666</v>
       </c>
       <c r="B480" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C480" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D480" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="481">
@@ -16915,7 +16915,7 @@
         <v>6</v>
       </c>
       <c r="C481" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D481" t="n">
         <v>6</v>
@@ -16926,13 +16926,13 @@
         <v>44786</v>
       </c>
       <c r="B482" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C482" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D482" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="483">
@@ -16940,13 +16940,13 @@
         <v>44786.01041666666</v>
       </c>
       <c r="B483" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C483" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D483" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="484">
@@ -16957,7 +16957,7 @@
         <v>4</v>
       </c>
       <c r="C484" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D484" t="n">
         <v>4</v>
@@ -16968,13 +16968,13 @@
         <v>44786.03125</v>
       </c>
       <c r="B485" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C485" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D485" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="486">
@@ -16982,13 +16982,13 @@
         <v>44786.04166666666</v>
       </c>
       <c r="B486" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C486" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D486" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="487">
@@ -16996,13 +16996,13 @@
         <v>44786.05208333334</v>
       </c>
       <c r="B487" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C487" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D487" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488">
@@ -17010,13 +17010,13 @@
         <v>44786.0625</v>
       </c>
       <c r="B488" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C488" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D488" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489">
@@ -17024,13 +17024,13 @@
         <v>44786.07291666666</v>
       </c>
       <c r="B489" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C489" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D489" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490">
@@ -17038,13 +17038,13 @@
         <v>44786.08333333334</v>
       </c>
       <c r="B490" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C490" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D490" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491">
@@ -17052,13 +17052,13 @@
         <v>44786.09375</v>
       </c>
       <c r="B491" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C491" t="n">
         <v>13</v>
       </c>
       <c r="D491" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="492">
@@ -17083,7 +17083,7 @@
         <v>6</v>
       </c>
       <c r="C493" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D493" t="n">
         <v>6</v>
@@ -17094,13 +17094,13 @@
         <v>44786.125</v>
       </c>
       <c r="B494" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C494" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D494" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="495">
@@ -17108,13 +17108,13 @@
         <v>44786.13541666666</v>
       </c>
       <c r="B495" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C495" t="n">
         <v>13</v>
       </c>
       <c r="D495" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="496">
@@ -17122,13 +17122,13 @@
         <v>44786.14583333334</v>
       </c>
       <c r="B496" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C496" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D496" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="497">
@@ -17136,13 +17136,13 @@
         <v>44786.15625</v>
       </c>
       <c r="B497" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C497" t="n">
         <v>13</v>
       </c>
       <c r="D497" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="498">
@@ -17164,13 +17164,13 @@
         <v>44786.17708333334</v>
       </c>
       <c r="B499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C499" t="n">
         <v>13</v>
       </c>
       <c r="D499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500">
@@ -17178,13 +17178,13 @@
         <v>44786.1875</v>
       </c>
       <c r="B500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C500" t="n">
         <v>13</v>
       </c>
       <c r="D500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501">
@@ -17192,13 +17192,13 @@
         <v>44786.19791666666</v>
       </c>
       <c r="B501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C501" t="n">
         <v>13</v>
       </c>
       <c r="D501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502">
@@ -17206,13 +17206,13 @@
         <v>44786.20833333334</v>
       </c>
       <c r="B502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C502" t="n">
         <v>13</v>
       </c>
       <c r="D502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
@@ -17220,13 +17220,13 @@
         <v>44786.21875</v>
       </c>
       <c r="B503" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C503" t="n">
         <v>13</v>
       </c>
       <c r="D503" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="504">
@@ -17234,13 +17234,13 @@
         <v>44786.22916666666</v>
       </c>
       <c r="B504" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C504" t="n">
         <v>13</v>
       </c>
       <c r="D504" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505">
@@ -17248,13 +17248,13 @@
         <v>44786.23958333334</v>
       </c>
       <c r="B505" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C505" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D505" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="506">
@@ -17290,13 +17290,13 @@
         <v>44786.27083333334</v>
       </c>
       <c r="B508" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C508" t="n">
         <v>13</v>
       </c>
       <c r="D508" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="509">
@@ -17304,13 +17304,13 @@
         <v>44786.28125</v>
       </c>
       <c r="B509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C509" t="n">
         <v>13</v>
       </c>
       <c r="D509" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510">
@@ -17318,13 +17318,13 @@
         <v>44786.29166666666</v>
       </c>
       <c r="B510" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C510" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D510" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="511">
@@ -17332,13 +17332,13 @@
         <v>44786.30208333334</v>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C511" t="n">
         <v>13</v>
       </c>
       <c r="D511" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512">
@@ -17346,13 +17346,13 @@
         <v>44786.3125</v>
       </c>
       <c r="B512" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C512" t="n">
         <v>13</v>
       </c>
       <c r="D512" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="513">
@@ -17360,13 +17360,13 @@
         <v>44786.32291666666</v>
       </c>
       <c r="B513" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C513" t="n">
         <v>13</v>
       </c>
       <c r="D513" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="514">
@@ -17374,13 +17374,13 @@
         <v>44786.33333333334</v>
       </c>
       <c r="B514" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C514" t="n">
         <v>13</v>
       </c>
       <c r="D514" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515">
@@ -17388,13 +17388,13 @@
         <v>44786.34375</v>
       </c>
       <c r="B515" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C515" t="n">
         <v>13</v>
       </c>
       <c r="D515" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516">
@@ -17402,13 +17402,13 @@
         <v>44786.35416666666</v>
       </c>
       <c r="B516" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C516" t="n">
         <v>13</v>
       </c>
       <c r="D516" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="517">
@@ -17416,13 +17416,13 @@
         <v>44786.36458333334</v>
       </c>
       <c r="B517" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C517" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D517" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518">
@@ -17430,13 +17430,13 @@
         <v>44786.375</v>
       </c>
       <c r="B518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C518" t="n">
         <v>13</v>
       </c>
       <c r="D518" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519">
@@ -17444,13 +17444,13 @@
         <v>44786.38541666666</v>
       </c>
       <c r="B519" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C519" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D519" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520">
@@ -17461,7 +17461,7 @@
         <v>3</v>
       </c>
       <c r="C520" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D520" t="n">
         <v>3</v>
@@ -17475,7 +17475,7 @@
         <v>3</v>
       </c>
       <c r="C521" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D521" t="n">
         <v>3</v>
@@ -17486,13 +17486,13 @@
         <v>44786.41666666666</v>
       </c>
       <c r="B522" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C522" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D522" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523">
@@ -17503,7 +17503,7 @@
         <v>2</v>
       </c>
       <c r="C523" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D523" t="n">
         <v>2</v>
@@ -17517,7 +17517,7 @@
         <v>2</v>
       </c>
       <c r="C524" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D524" t="n">
         <v>2</v>
@@ -17531,7 +17531,7 @@
         <v>3</v>
       </c>
       <c r="C525" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D525" t="n">
         <v>3</v>
@@ -17542,13 +17542,13 @@
         <v>44786.45833333334</v>
       </c>
       <c r="B526" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C526" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D526" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527">
@@ -17556,13 +17556,13 @@
         <v>44786.46875</v>
       </c>
       <c r="B527" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C527" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D527" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="528">
@@ -17573,7 +17573,7 @@
         <v>2</v>
       </c>
       <c r="C528" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D528" t="n">
         <v>2</v>
@@ -17587,7 +17587,7 @@
         <v>3</v>
       </c>
       <c r="C529" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D529" t="n">
         <v>3</v>
@@ -17601,7 +17601,7 @@
         <v>4</v>
       </c>
       <c r="C530" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D530" t="n">
         <v>4</v>
@@ -17612,13 +17612,13 @@
         <v>44786.51041666666</v>
       </c>
       <c r="B531" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C531" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D531" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="532">
@@ -17626,13 +17626,13 @@
         <v>44786.52083333334</v>
       </c>
       <c r="B532" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C532" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D532" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="533">
@@ -17643,7 +17643,7 @@
         <v>3</v>
       </c>
       <c r="C533" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D533" t="n">
         <v>3</v>
@@ -17654,13 +17654,13 @@
         <v>44786.54166666666</v>
       </c>
       <c r="B534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C534" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535">
@@ -17668,13 +17668,13 @@
         <v>44786.55208333334</v>
       </c>
       <c r="B535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D535" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
@@ -17682,13 +17682,13 @@
         <v>44786.5625</v>
       </c>
       <c r="B536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D536" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537">
@@ -17696,13 +17696,13 @@
         <v>44786.57291666666</v>
       </c>
       <c r="B537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D537" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538">
@@ -17710,13 +17710,13 @@
         <v>44786.58333333334</v>
       </c>
       <c r="B538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C538" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D538" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539">
@@ -17724,13 +17724,13 @@
         <v>44786.59375</v>
       </c>
       <c r="B539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D539" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540">
@@ -17738,13 +17738,13 @@
         <v>44786.60416666666</v>
       </c>
       <c r="B540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C540" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D540" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541">
@@ -17752,13 +17752,13 @@
         <v>44786.61458333334</v>
       </c>
       <c r="B541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -17766,13 +17766,13 @@
         <v>44786.625</v>
       </c>
       <c r="B542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
@@ -17780,13 +17780,13 @@
         <v>44786.63541666666</v>
       </c>
       <c r="B543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C543" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
@@ -17794,13 +17794,13 @@
         <v>44786.64583333334</v>
       </c>
       <c r="B544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C544" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
@@ -17808,13 +17808,13 @@
         <v>44786.65625</v>
       </c>
       <c r="B545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C545" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
@@ -17822,13 +17822,13 @@
         <v>44786.66666666666</v>
       </c>
       <c r="B546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C546" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
@@ -17836,13 +17836,13 @@
         <v>44786.67708333334</v>
       </c>
       <c r="B547" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C547" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D547" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="548">
@@ -17850,13 +17850,13 @@
         <v>44786.6875</v>
       </c>
       <c r="B548" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C548" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D548" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="549">
@@ -17864,13 +17864,13 @@
         <v>44786.69791666666</v>
       </c>
       <c r="B549" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C549" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D549" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="550">
@@ -17878,13 +17878,13 @@
         <v>44786.70833333334</v>
       </c>
       <c r="B550" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C550" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D550" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="551">
@@ -17892,13 +17892,13 @@
         <v>44786.71875</v>
       </c>
       <c r="B551" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C551" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D551" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="552">
@@ -17906,13 +17906,13 @@
         <v>44786.72916666666</v>
       </c>
       <c r="B552" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C552" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D552" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553">
@@ -17920,13 +17920,13 @@
         <v>44786.73958333334</v>
       </c>
       <c r="B553" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C553" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D553" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="554">
@@ -17934,13 +17934,13 @@
         <v>44786.75</v>
       </c>
       <c r="B554" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C554" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D554" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="555">
@@ -17948,13 +17948,13 @@
         <v>44786.76041666666</v>
       </c>
       <c r="B555" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C555" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D555" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556">
@@ -17962,13 +17962,13 @@
         <v>44786.77083333334</v>
       </c>
       <c r="B556" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C556" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D556" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="557">
@@ -17976,13 +17976,13 @@
         <v>44786.78125</v>
       </c>
       <c r="B557" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C557" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D557" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="558">
@@ -17990,13 +17990,13 @@
         <v>44786.79166666666</v>
       </c>
       <c r="B558" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C558" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D558" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="559">
@@ -18004,13 +18004,13 @@
         <v>44786.80208333334</v>
       </c>
       <c r="B559" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C559" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D559" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="560">
@@ -18018,13 +18018,13 @@
         <v>44786.8125</v>
       </c>
       <c r="B560" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C560" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D560" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="561">
@@ -18032,13 +18032,13 @@
         <v>44786.82291666666</v>
       </c>
       <c r="B561" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C561" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D561" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="562">
@@ -18046,13 +18046,13 @@
         <v>44786.83333333334</v>
       </c>
       <c r="B562" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C562" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D562" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="563">
@@ -18060,13 +18060,13 @@
         <v>44786.84375</v>
       </c>
       <c r="B563" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C563" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D563" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564">
@@ -18074,13 +18074,13 @@
         <v>44786.85416666666</v>
       </c>
       <c r="B564" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C564" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D564" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565">
@@ -18088,13 +18088,13 @@
         <v>44786.86458333334</v>
       </c>
       <c r="B565" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C565" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D565" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566">
@@ -18102,13 +18102,13 @@
         <v>44786.875</v>
       </c>
       <c r="B566" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C566" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D566" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="567">
@@ -18116,13 +18116,13 @@
         <v>44786.88541666666</v>
       </c>
       <c r="B567" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C567" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D567" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568">
@@ -18130,13 +18130,13 @@
         <v>44786.89583333334</v>
       </c>
       <c r="B568" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C568" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D568" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="569">
@@ -18144,13 +18144,13 @@
         <v>44786.90625</v>
       </c>
       <c r="B569" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C569" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D569" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="570">
@@ -18158,13 +18158,13 @@
         <v>44786.91666666666</v>
       </c>
       <c r="B570" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C570" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D570" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571">
@@ -18172,13 +18172,13 @@
         <v>44786.92708333334</v>
       </c>
       <c r="B571" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C571" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D571" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="572">
@@ -18186,13 +18186,13 @@
         <v>44786.9375</v>
       </c>
       <c r="B572" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C572" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D572" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="573">
@@ -18200,13 +18200,13 @@
         <v>44786.94791666666</v>
       </c>
       <c r="B573" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C573" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D573" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="574">
@@ -18214,13 +18214,13 @@
         <v>44786.95833333334</v>
       </c>
       <c r="B574" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C574" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D574" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="575">
@@ -18228,13 +18228,13 @@
         <v>44786.96875</v>
       </c>
       <c r="B575" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C575" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D575" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576">
@@ -18242,13 +18242,13 @@
         <v>44786.97916666666</v>
       </c>
       <c r="B576" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C576" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D576" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577">
@@ -18256,13 +18256,13 @@
         <v>44786.98958333334</v>
       </c>
       <c r="B577" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C577" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D577" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578">
@@ -18270,13 +18270,13 @@
         <v>44787</v>
       </c>
       <c r="B578" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C578" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D578" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="579">
@@ -18284,13 +18284,13 @@
         <v>44787.01041666666</v>
       </c>
       <c r="B579" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C579" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D579" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="580">
@@ -18301,7 +18301,7 @@
         <v>3</v>
       </c>
       <c r="C580" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D580" t="n">
         <v>3</v>
@@ -18315,7 +18315,7 @@
         <v>3</v>
       </c>
       <c r="C581" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D581" t="n">
         <v>3</v>
@@ -18329,7 +18329,7 @@
         <v>3</v>
       </c>
       <c r="C582" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D582" t="n">
         <v>3</v>
@@ -18343,7 +18343,7 @@
         <v>3</v>
       </c>
       <c r="C583" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D583" t="n">
         <v>3</v>
@@ -18357,7 +18357,7 @@
         <v>2</v>
       </c>
       <c r="C584" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D584" t="n">
         <v>2</v>
@@ -18368,13 +18368,13 @@
         <v>44787.07291666666</v>
       </c>
       <c r="B585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D585" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586">
@@ -18382,13 +18382,13 @@
         <v>44787.08333333334</v>
       </c>
       <c r="B586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C586" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D586" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587">
@@ -18399,7 +18399,7 @@
         <v>1</v>
       </c>
       <c r="C587" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D587" t="n">
         <v>1</v>
@@ -18410,13 +18410,13 @@
         <v>44787.10416666666</v>
       </c>
       <c r="B588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C588" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589">
@@ -18424,13 +18424,13 @@
         <v>44787.11458333334</v>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C589" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D589" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590">
@@ -18438,13 +18438,13 @@
         <v>44787.125</v>
       </c>
       <c r="B590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C590" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591">
@@ -18452,13 +18452,13 @@
         <v>44787.13541666666</v>
       </c>
       <c r="B591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C591" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D591" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592">
@@ -18466,13 +18466,13 @@
         <v>44787.14583333334</v>
       </c>
       <c r="B592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C592" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D592" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593">
@@ -18480,13 +18480,13 @@
         <v>44787.15625</v>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C593" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D593" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594">
@@ -18494,13 +18494,13 @@
         <v>44787.16666666666</v>
       </c>
       <c r="B594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C594" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D594" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595">
@@ -18508,13 +18508,13 @@
         <v>44787.17708333334</v>
       </c>
       <c r="B595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C595" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596">
@@ -18522,13 +18522,13 @@
         <v>44787.1875</v>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
@@ -18536,13 +18536,13 @@
         <v>44787.19791666666</v>
       </c>
       <c r="B597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C597" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D597" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598">
@@ -18550,13 +18550,13 @@
         <v>44787.20833333334</v>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599">
@@ -18564,13 +18564,13 @@
         <v>44787.21875</v>
       </c>
       <c r="B599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C599" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D599" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600">
@@ -18578,13 +18578,13 @@
         <v>44787.22916666666</v>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601">
@@ -18592,13 +18592,13 @@
         <v>44787.23958333334</v>
       </c>
       <c r="B601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C601" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D601" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602">
@@ -18609,7 +18609,7 @@
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D602" t="n">
         <v>0</v>
@@ -18623,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="C603" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D603" t="n">
         <v>0</v>
@@ -18637,7 +18637,7 @@
         <v>0</v>
       </c>
       <c r="C604" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D604" t="n">
         <v>0</v>
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
       <c r="C605" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
@@ -18665,7 +18665,7 @@
         <v>0</v>
       </c>
       <c r="C606" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D606" t="n">
         <v>0</v>
@@ -18679,7 +18679,7 @@
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D607" t="n">
         <v>0</v>
@@ -18693,7 +18693,7 @@
         <v>0</v>
       </c>
       <c r="C608" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D608" t="n">
         <v>0</v>
@@ -18707,7 +18707,7 @@
         <v>0</v>
       </c>
       <c r="C609" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D609" t="n">
         <v>0</v>
@@ -18721,7 +18721,7 @@
         <v>0</v>
       </c>
       <c r="C610" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D610" t="n">
         <v>0</v>
@@ -18735,7 +18735,7 @@
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D611" t="n">
         <v>0</v>
@@ -18749,7 +18749,7 @@
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D612" t="n">
         <v>0</v>
@@ -18763,7 +18763,7 @@
         <v>0</v>
       </c>
       <c r="C613" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D613" t="n">
         <v>0</v>
@@ -18777,7 +18777,7 @@
         <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D614" t="n">
         <v>0</v>
@@ -18875,7 +18875,7 @@
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D621" t="n">
         <v>0</v>
@@ -18889,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D622" t="n">
         <v>0</v>
@@ -18903,7 +18903,7 @@
         <v>0</v>
       </c>
       <c r="C623" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D623" t="n">
         <v>0</v>
@@ -18917,7 +18917,7 @@
         <v>0</v>
       </c>
       <c r="C624" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D624" t="n">
         <v>0</v>
@@ -18931,7 +18931,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D625" t="n">
         <v>0</v>
@@ -18945,7 +18945,7 @@
         <v>0</v>
       </c>
       <c r="C626" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D626" t="n">
         <v>0</v>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="C627" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D627" t="n">
         <v>0</v>
@@ -18973,7 +18973,7 @@
         <v>0</v>
       </c>
       <c r="C628" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D628" t="n">
         <v>0</v>
@@ -18987,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D629" t="n">
         <v>0</v>
@@ -19001,7 +19001,7 @@
         <v>0</v>
       </c>
       <c r="C630" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D630" t="n">
         <v>0</v>
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="C665" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D665" t="n">
         <v>0</v>
@@ -19561,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="C670" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D670" t="n">
         <v>0</v>
@@ -19575,7 +19575,7 @@
         <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D671" t="n">
         <v>0</v>
@@ -19589,7 +19589,7 @@
         <v>0</v>
       </c>
       <c r="C672" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D672" t="n">
         <v>0</v>
@@ -19603,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D673" t="n">
         <v>0</v>
@@ -19617,7 +19617,7 @@
         <v>0</v>
       </c>
       <c r="C674" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D674" t="n">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D675" t="n">
         <v>0</v>
@@ -19645,7 +19645,7 @@
         <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D676" t="n">
         <v>0</v>
